--- a/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGKÖVETŐ_ÖKO_2. munkaszakasz.xlsx
+++ b/TestApp/bin/Debug/net6.0-windows/Resources/KÖLTSÉGKÖVETŐ_ÖKO_2. munkaszakasz.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\felhasználó\Munka\!PROJEKTEK\2019-1.2.1-EGYETEMI-ÖKO-2019-00005\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{446251B4-89ED-43F7-A131-68E2D2CCFA4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4DC762-AAF6-435F-9394-F547FA2DA374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,9 +34,9 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <customWorkbookViews>
+    <customWorkbookView name="bérkarton felkérés" guid="{5B7A7034-1D27-4339-9163-15908448B119}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
+    <customWorkbookView name="KTGKÖV RELEVÁNS" guid="{512FD11E-1805-40CF-9281-A97D99C73B97}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
     <customWorkbookView name="alapbeáll" guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
-    <customWorkbookView name="KTGKÖV RELEVÁNS" guid="{512FD11E-1805-40CF-9281-A97D99C73B97}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="2"/>
-    <customWorkbookView name="bérkarton felkérés" guid="{5B7A7034-1D27-4339-9163-15908448B119}" maximized="1" xWindow="-9" yWindow="-9" windowWidth="1938" windowHeight="1048" activeSheetId="1"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1000,7 +1000,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3649" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3648" uniqueCount="477">
   <si>
     <t>Tevékenység neve</t>
   </si>
@@ -1832,9 +1832,6 @@
     <t>Számfejtés</t>
   </si>
   <si>
-    <t>Okmány</t>
-  </si>
-  <si>
     <t>Munkaköri leírás</t>
   </si>
   <si>
@@ -2469,6 +2466,9 @@
   </si>
   <si>
     <t>P1500200 számú szabadalom fenntartási díj</t>
+  </si>
+  <si>
+    <t>megbízás</t>
   </si>
 </sst>
 </file>
@@ -4595,13 +4595,13 @@
         <v>248</v>
       </c>
       <c r="G1" s="134" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="H1" s="189" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="I1" s="189" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="J1" s="192" t="s">
         <v>5</v>
@@ -5120,7 +5120,7 @@
         <v>28</v>
       </c>
       <c r="D16" s="136" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E16" s="137">
         <v>444500</v>
@@ -5148,13 +5148,13 @@
         <v>158</v>
       </c>
       <c r="B17" s="220" t="s">
+        <v>363</v>
+      </c>
+      <c r="C17" s="220" t="s">
+        <v>363</v>
+      </c>
+      <c r="D17" s="220" t="s">
         <v>364</v>
-      </c>
-      <c r="C17" s="220" t="s">
-        <v>364</v>
-      </c>
-      <c r="D17" s="220" t="s">
-        <v>365</v>
       </c>
       <c r="E17" s="137"/>
       <c r="F17" s="137">
@@ -5174,7 +5174,7 @@
         <v>-271805</v>
       </c>
       <c r="J17" s="221" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
@@ -6374,7 +6374,7 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A60" s="138" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B60" s="139"/>
       <c r="C60" s="139"/>
@@ -6403,7 +6403,7 @@
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.25">
       <c r="F62" s="132" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G62" s="141">
         <f>F60+G60</f>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="65" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D65" s="250" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="E65" s="67">
         <v>63964843</v>
@@ -6427,7 +6427,7 @@
     </row>
     <row r="66" spans="4:7" x14ac:dyDescent="0.25">
       <c r="D66" s="132" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="E66" s="141">
         <f>E65+E60</f>
@@ -6457,13 +6457,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AD258"/>
+  <dimension ref="A1:AC258"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="3" topLeftCell="E210" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="3" topLeftCell="I222" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="T1" sqref="T1"/>
+      <selection pane="bottomRight" activeCell="Z238" sqref="Z238:Z242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.25"/>
@@ -6496,9 +6496,9 @@
     <col min="28" max="29" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E1" s="124" t="s">
         <v>262</v>
@@ -6507,30 +6507,30 @@
         <v>263</v>
       </c>
       <c r="G1" s="125" t="s">
+        <v>467</v>
+      </c>
+      <c r="N1" s="127" t="s">
+        <v>399</v>
+      </c>
+      <c r="O1" t="s">
+        <v>400</v>
+      </c>
+      <c r="T1" s="242" t="s">
+        <v>375</v>
+      </c>
+      <c r="Z1" t="s">
         <v>468</v>
       </c>
-      <c r="N1" s="127" t="s">
-        <v>400</v>
-      </c>
-      <c r="O1" t="s">
-        <v>401</v>
-      </c>
-      <c r="T1" s="242" t="s">
-        <v>376</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="2" spans="1:30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B2" s="184" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C2" s="184" t="s">
         <v>124</v>
       </c>
       <c r="D2" s="217" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="N2" s="186" t="str">
         <f>IF((N254-N252) &lt;&gt; 0,"HIBA","HELYES")</f>
@@ -6549,15 +6549,15 @@
         <v>#N/A</v>
       </c>
     </row>
-    <row r="3" spans="1:30" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:29" s="75" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="70" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B3" s="185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="185" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D3" s="71" t="s">
         <v>0</v>
@@ -6581,7 +6581,7 @@
         <v>261</v>
       </c>
       <c r="K3" s="82" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="L3" s="70" t="s">
         <v>259</v>
@@ -6602,43 +6602,41 @@
         <v>258</v>
       </c>
       <c r="R3" s="70" t="s">
+        <v>272</v>
+      </c>
+      <c r="S3" s="201" t="s">
+        <v>302</v>
+      </c>
+      <c r="T3" s="243" t="s">
+        <v>375</v>
+      </c>
+      <c r="U3" s="202" t="s">
+        <v>303</v>
+      </c>
+      <c r="V3" s="157" t="s">
         <v>273</v>
       </c>
-      <c r="S3" s="201" t="s">
-        <v>303</v>
-      </c>
-      <c r="T3" s="243" t="s">
-        <v>376</v>
-      </c>
-      <c r="U3" s="202" t="s">
-        <v>304</v>
-      </c>
-      <c r="V3" s="157" t="s">
+      <c r="W3" s="158" t="s">
+        <v>264</v>
+      </c>
+      <c r="X3" s="158" t="s">
         <v>274</v>
-      </c>
-      <c r="W3" s="158" t="s">
-        <v>265</v>
-      </c>
-      <c r="X3" s="158" t="s">
-        <v>275</v>
       </c>
       <c r="Y3" s="156" t="s">
         <v>4</v>
       </c>
-      <c r="Z3" s="80" t="s">
-        <v>264</v>
-      </c>
+      <c r="Z3" s="80"/>
       <c r="AA3" s="233" t="s">
+        <v>386</v>
+      </c>
+      <c r="AB3" s="233" t="s">
         <v>387</v>
       </c>
-      <c r="AB3" s="233" t="s">
+      <c r="AC3" s="233" t="s">
         <v>388</v>
       </c>
-      <c r="AC3" s="233" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="4" spans="1:30" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:29" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="83"/>
       <c r="B4" s="83"/>
       <c r="C4" s="83"/>
@@ -6666,7 +6664,7 @@
       <c r="Y4" s="83"/>
       <c r="Z4" s="69"/>
     </row>
-    <row r="5" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="91" t="s">
         <v>125</v>
       </c>
@@ -6719,7 +6717,7 @@
         <v>0.47126436781609193</v>
       </c>
       <c r="Q5" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R5" s="94"/>
       <c r="S5" s="106">
@@ -6738,11 +6736,9 @@
       <c r="Y5" s="94">
         <v>3</v>
       </c>
-      <c r="Z5" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z5" s="76"/>
+    </row>
+    <row r="6" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="91" t="s">
         <v>125</v>
       </c>
@@ -6795,7 +6791,7 @@
         <v>0.47126436781609193</v>
       </c>
       <c r="Q6" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R6" s="94"/>
       <c r="S6" s="106">
@@ -6814,11 +6810,9 @@
       <c r="Y6" s="94">
         <v>3</v>
       </c>
-      <c r="Z6" s="76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z6" s="76"/>
+    </row>
+    <row r="7" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="91" t="s">
         <v>125</v>
       </c>
@@ -6871,7 +6865,7 @@
         <v>0.47126436781609193</v>
       </c>
       <c r="Q7" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R7" s="155">
         <v>0.13</v>
@@ -6892,11 +6886,9 @@
       <c r="Y7" s="94">
         <v>3</v>
       </c>
-      <c r="Z7" s="76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z7" s="76"/>
+    </row>
+    <row r="8" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="91" t="s">
         <v>125</v>
       </c>
@@ -6949,7 +6941,7 @@
         <v>0.47126436781609193</v>
       </c>
       <c r="Q8" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R8" s="155">
         <v>0.13</v>
@@ -6970,13 +6962,11 @@
       <c r="Y8" s="94">
         <v>3</v>
       </c>
-      <c r="Z8" s="76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z8" s="76"/>
+    </row>
+    <row r="9" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B9" s="91" t="s">
         <v>171</v>
@@ -7028,7 +7018,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q9" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R9" s="94"/>
       <c r="S9" s="106">
@@ -7043,13 +7033,11 @@
       <c r="Y9" s="94">
         <v>3</v>
       </c>
-      <c r="Z9" s="76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z9" s="76"/>
+    </row>
+    <row r="10" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B10" s="91" t="s">
         <v>171</v>
@@ -7100,7 +7088,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q10" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R10" s="94"/>
       <c r="S10" s="106">
@@ -7115,13 +7103,11 @@
       <c r="Y10" s="94">
         <v>3</v>
       </c>
-      <c r="Z10" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z10" s="76"/>
+    </row>
+    <row r="11" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B11" s="91" t="s">
         <v>171</v>
@@ -7172,7 +7158,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q11" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R11" s="155">
         <v>0.13</v>
@@ -7189,13 +7175,11 @@
       <c r="Y11" s="94">
         <v>3</v>
       </c>
-      <c r="Z11" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z11" s="76"/>
+    </row>
+    <row r="12" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B12" s="91" t="s">
         <v>171</v>
@@ -7246,7 +7230,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q12" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R12" s="155">
         <v>0.13</v>
@@ -7265,13 +7249,11 @@
       <c r="Y12" s="94">
         <v>3</v>
       </c>
-      <c r="Z12" s="77">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z12" s="77"/>
+    </row>
+    <row r="13" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B13" s="91" t="s">
         <v>171</v>
@@ -7322,7 +7304,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q13" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R13" s="155">
         <v>0.13</v>
@@ -7341,13 +7323,11 @@
       <c r="Y13" s="94">
         <v>3</v>
       </c>
-      <c r="Z13" s="76">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="14" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z13" s="76"/>
+    </row>
+    <row r="14" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B14" s="91" t="s">
         <v>171</v>
@@ -7398,7 +7378,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q14" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R14" s="155">
         <v>0.13</v>
@@ -7417,13 +7397,11 @@
       <c r="Y14" s="94">
         <v>3</v>
       </c>
-      <c r="Z14" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z14" s="76"/>
+    </row>
+    <row r="15" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B15" s="91" t="s">
         <v>171</v>
@@ -7474,7 +7452,7 @@
         <v>0.25287356321839083</v>
       </c>
       <c r="Q15" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R15" s="155">
         <v>0.13</v>
@@ -7493,13 +7471,11 @@
       <c r="Y15" s="94">
         <v>3</v>
       </c>
-      <c r="Z15" s="76">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z15" s="76"/>
+    </row>
+    <row r="16" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B16" s="91" t="s">
         <v>171</v>
@@ -7550,7 +7526,7 @@
         <v>0.25287356321839083</v>
       </c>
       <c r="Q16" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R16" s="155">
         <v>0.13</v>
@@ -7569,13 +7545,11 @@
       <c r="Y16" s="94">
         <v>3</v>
       </c>
-      <c r="Z16" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z16" s="76"/>
     </row>
     <row r="17" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B17" s="91" t="s">
         <v>171</v>
@@ -7626,7 +7600,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q17" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R17" s="155">
         <v>0.13</v>
@@ -7647,13 +7621,11 @@
       <c r="Y17" s="94">
         <v>3</v>
       </c>
-      <c r="Z17" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z17" s="76"/>
     </row>
     <row r="18" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B18" s="91" t="s">
         <v>171</v>
@@ -7704,7 +7676,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q18" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R18" s="155">
         <v>0.13</v>
@@ -7725,13 +7697,11 @@
       <c r="Y18" s="94">
         <v>3</v>
       </c>
-      <c r="Z18" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z18" s="76"/>
     </row>
     <row r="19" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B19" s="91" t="s">
         <v>171</v>
@@ -7782,7 +7752,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q19" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R19" s="155">
         <v>0.13</v>
@@ -7803,13 +7773,11 @@
       <c r="Y19" s="94">
         <v>3</v>
       </c>
-      <c r="Z19" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z19" s="76"/>
     </row>
     <row r="20" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B20" s="91" t="s">
         <v>171</v>
@@ -7861,7 +7829,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q20" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R20" s="155">
         <v>0.13</v>
@@ -7882,13 +7850,11 @@
       <c r="Y20" s="94">
         <v>3</v>
       </c>
-      <c r="Z20" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z20" s="76"/>
     </row>
     <row r="21" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B21" s="91" t="s">
         <v>171</v>
@@ -7939,7 +7905,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q21" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R21" s="155">
         <v>0.13</v>
@@ -7949,7 +7915,7 @@
         <v>1.4414250570915499E-7</v>
       </c>
       <c r="T21" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U21" s="203">
         <v>44728</v>
@@ -7960,22 +7926,20 @@
       <c r="W21" s="94"/>
       <c r="X21" s="94"/>
       <c r="Y21" s="94"/>
-      <c r="Z21" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z21" s="76"/>
       <c r="AA21" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB21" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="AB21" s="231" t="s">
-        <v>411</v>
-      </c>
       <c r="AC21" s="231" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="22" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B22" s="91" t="s">
         <v>171</v>
@@ -8026,7 +7990,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q22" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R22" s="155">
         <v>0.13</v>
@@ -8036,7 +8000,7 @@
         <v>-7.7582575774837181E-7</v>
       </c>
       <c r="T22" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U22" s="203">
         <v>44728</v>
@@ -8047,22 +8011,20 @@
       <c r="W22" s="94"/>
       <c r="X22" s="94"/>
       <c r="Y22" s="94"/>
-      <c r="Z22" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z22" s="76"/>
       <c r="AA22" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB22" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC22" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="23" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B23" s="91" t="s">
         <v>171</v>
@@ -8113,7 +8075,7 @@
         <v>0.2471264367816092</v>
       </c>
       <c r="Q23" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R23" s="155">
         <v>0.13</v>
@@ -8123,7 +8085,7 @@
         <v>3.4189637356557279E-3</v>
       </c>
       <c r="T23" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U23" s="203">
         <v>44936</v>
@@ -8134,11 +8096,9 @@
       <c r="W23" s="94"/>
       <c r="X23" s="94"/>
       <c r="Y23" s="94"/>
-      <c r="Z23" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z23" s="76"/>
       <c r="AA23" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB23" s="42">
         <v>0</v>
@@ -8149,7 +8109,7 @@
     </row>
     <row r="24" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B24" s="91" t="s">
         <v>171</v>
@@ -8201,7 +8161,7 @@
         <v>0.2471264367816092</v>
       </c>
       <c r="Q24" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R24" s="155">
         <v>0.13</v>
@@ -8211,7 +8171,7 @@
         <v>-7.2624593255854464E-8</v>
       </c>
       <c r="T24" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U24" s="203">
         <v>44936</v>
@@ -8222,9 +8182,7 @@
       <c r="W24" s="94"/>
       <c r="X24" s="94"/>
       <c r="Y24" s="94"/>
-      <c r="Z24" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z24" s="76"/>
       <c r="AA24" s="42" t="str">
         <f>IF(VLOOKUP($T24,'Havi béradatok'!$B:$E,2,FALSE)=F24,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8240,7 +8198,7 @@
     </row>
     <row r="25" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B25" s="91" t="s">
         <v>171</v>
@@ -8292,7 +8250,7 @@
         <v>0.26436781609195403</v>
       </c>
       <c r="Q25" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R25" s="155">
         <v>0.13</v>
@@ -8302,7 +8260,7 @@
         <v>-3.725107203811362E-7</v>
       </c>
       <c r="T25" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U25" s="203">
         <v>44985</v>
@@ -8313,9 +8271,7 @@
       <c r="W25" s="94"/>
       <c r="X25" s="94"/>
       <c r="Y25" s="94"/>
-      <c r="Z25" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z25" s="76"/>
       <c r="AA25" s="42" t="str">
         <f>IF(VLOOKUP($T25,'Havi béradatok'!$B:$E,2,FALSE)=F25,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -8331,7 +8287,7 @@
     </row>
     <row r="26" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B26" s="91" t="s">
         <v>171</v>
@@ -8355,7 +8311,7 @@
         <v>45046</v>
       </c>
       <c r="I26" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J26" s="92">
         <v>579100</v>
@@ -8383,7 +8339,7 @@
         <v>0.26436781609195403</v>
       </c>
       <c r="Q26" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R26" s="155">
         <v>0.13</v>
@@ -8393,7 +8349,7 @@
         <v>6.9469668551036534E-7</v>
       </c>
       <c r="T26" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U26" s="203">
         <v>44985</v>
@@ -8408,7 +8364,7 @@
     </row>
     <row r="27" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B27" s="91" t="s">
         <v>171</v>
@@ -8432,7 +8388,7 @@
         <v>45077</v>
       </c>
       <c r="I27" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J27" s="92">
         <v>579100</v>
@@ -8460,7 +8416,7 @@
         <v>0.26436781609195403</v>
       </c>
       <c r="Q27" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R27" s="155">
         <v>0.13</v>
@@ -8470,7 +8426,7 @@
         <v>6.9469668551036534E-7</v>
       </c>
       <c r="T27" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U27" s="203">
         <v>44985</v>
@@ -8485,7 +8441,7 @@
     </row>
     <row r="28" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="91" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B28" s="91" t="s">
         <v>171</v>
@@ -8509,7 +8465,7 @@
         <v>45107</v>
       </c>
       <c r="I28" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J28" s="92">
         <v>579100</v>
@@ -8537,7 +8493,7 @@
         <v>0.26436781609195403</v>
       </c>
       <c r="Q28" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R28" s="155">
         <v>0.13</v>
@@ -8547,7 +8503,7 @@
         <v>6.9469668551036534E-7</v>
       </c>
       <c r="T28" s="234" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="U28" s="203">
         <v>44985</v>
@@ -8613,7 +8569,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q29" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R29" s="155">
         <v>0.13</v>
@@ -8687,7 +8643,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q30" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R30" s="155">
         <v>0.13</v>
@@ -8706,9 +8662,7 @@
       <c r="Y30" s="94">
         <v>3</v>
       </c>
-      <c r="Z30" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z30" s="76"/>
     </row>
     <row r="31" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="91" t="s">
@@ -8763,7 +8717,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q31" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R31" s="155">
         <v>0.13</v>
@@ -8782,9 +8736,7 @@
       <c r="Y31" s="94">
         <v>3</v>
       </c>
-      <c r="Z31" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z31" s="76"/>
     </row>
     <row r="32" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="91" t="s">
@@ -8839,7 +8791,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q32" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R32" s="155">
         <v>0.13</v>
@@ -8858,9 +8810,7 @@
       <c r="Y32" s="94">
         <v>3</v>
       </c>
-      <c r="Z32" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z32" s="76"/>
     </row>
     <row r="33" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
@@ -8915,7 +8865,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q33" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R33" s="155">
         <v>0.13</v>
@@ -8934,9 +8884,7 @@
       <c r="Y33" s="94">
         <v>3</v>
       </c>
-      <c r="Z33" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z33" s="76"/>
     </row>
     <row r="34" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="91" t="s">
@@ -8991,7 +8939,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q34" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R34" s="155">
         <v>0.13</v>
@@ -9010,9 +8958,7 @@
       <c r="Y34" s="94">
         <v>3</v>
       </c>
-      <c r="Z34" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z34" s="76"/>
     </row>
     <row r="35" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="91" t="s">
@@ -9067,7 +9013,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q35" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R35" s="155">
         <v>0.13</v>
@@ -9088,9 +9034,7 @@
       <c r="Y35" s="94">
         <v>3</v>
       </c>
-      <c r="Z35" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z35" s="76"/>
     </row>
     <row r="36" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="91" t="s">
@@ -9145,7 +9089,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q36" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R36" s="155">
         <v>0.13</v>
@@ -9166,9 +9110,7 @@
       <c r="Y36" s="94">
         <v>3</v>
       </c>
-      <c r="Z36" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z36" s="76"/>
     </row>
     <row r="37" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="91" t="s">
@@ -9223,7 +9165,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q37" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R37" s="155">
         <v>0.13</v>
@@ -9233,7 +9175,7 @@
         <v>3.8800396755936939E-3</v>
       </c>
       <c r="T37" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U37" s="203">
         <v>44796</v>
@@ -9244,17 +9186,15 @@
       <c r="W37" s="94"/>
       <c r="X37" s="94"/>
       <c r="Y37" s="94"/>
-      <c r="Z37" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z37" s="76"/>
       <c r="AA37" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB37" s="231" t="s">
         <v>410</v>
       </c>
-      <c r="AB37" s="231" t="s">
-        <v>411</v>
-      </c>
       <c r="AC37" s="231" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="38" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9310,7 +9250,7 @@
         <v>0.5114942528735632</v>
       </c>
       <c r="Q38" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R38" s="155">
         <v>0.13</v>
@@ -9320,7 +9260,7 @@
         <v>3.8800396755936939E-3</v>
       </c>
       <c r="T38" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U38" s="203">
         <v>44883</v>
@@ -9331,17 +9271,15 @@
       <c r="W38" s="94"/>
       <c r="X38" s="94"/>
       <c r="Y38" s="94"/>
-      <c r="Z38" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z38" s="76"/>
       <c r="AA38" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB38" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="AB38" s="239" t="s">
-        <v>411</v>
-      </c>
       <c r="AC38" s="239" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="39" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -9397,7 +9335,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q39" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R39" s="155">
         <v>0.13</v>
@@ -9407,7 +9345,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T39" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U39" s="203">
         <v>44946</v>
@@ -9418,11 +9356,9 @@
       <c r="W39" s="94"/>
       <c r="X39" s="94"/>
       <c r="Y39" s="94"/>
-      <c r="Z39" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z39" s="76"/>
       <c r="AA39" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB39" s="239">
         <v>6818</v>
@@ -9484,7 +9420,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q40" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R40" s="155">
         <v>0.13</v>
@@ -9494,7 +9430,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T40" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U40" s="203">
         <v>44946</v>
@@ -9505,9 +9441,7 @@
       <c r="W40" s="94"/>
       <c r="X40" s="94"/>
       <c r="Y40" s="94"/>
-      <c r="Z40" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z40" s="76"/>
       <c r="AA40" s="42" t="str">
         <f>IF(VLOOKUP($T40,'Havi béradatok'!$B:$E,2,FALSE)=F40,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9574,7 +9508,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q41" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R41" s="155">
         <v>0.13</v>
@@ -9584,7 +9518,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T41" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U41" s="203">
         <v>44946</v>
@@ -9595,9 +9529,7 @@
       <c r="W41" s="94"/>
       <c r="X41" s="94"/>
       <c r="Y41" s="94"/>
-      <c r="Z41" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z41" s="76"/>
       <c r="AA41" s="42" t="str">
         <f>IF(VLOOKUP($T41,'Havi béradatok'!$B:$E,2,FALSE)=F41,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -9637,7 +9569,7 @@
         <v>45046</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J42" s="92">
         <v>449200</v>
@@ -9664,7 +9596,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q42" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R42" s="155">
         <v>0.13</v>
@@ -9674,7 +9606,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T42" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U42" s="203">
         <v>44946</v>
@@ -9713,7 +9645,7 @@
         <v>45077</v>
       </c>
       <c r="I43" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J43" s="92">
         <v>449200</v>
@@ -9740,7 +9672,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q43" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R43" s="155">
         <v>0.13</v>
@@ -9750,7 +9682,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T43" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U43" s="203">
         <v>44946</v>
@@ -9789,7 +9721,7 @@
         <v>45107</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J44" s="92">
         <v>449200</v>
@@ -9816,7 +9748,7 @@
         <v>0.47701149425287354</v>
       </c>
       <c r="Q44" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R44" s="155">
         <v>0.13</v>
@@ -9826,7 +9758,7 @@
         <v>2.8351808067471063E-3</v>
       </c>
       <c r="T44" s="234" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="U44" s="203">
         <v>44946</v>
@@ -9841,7 +9773,7 @@
     </row>
     <row r="45" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B45" s="91" t="s">
         <v>162</v>
@@ -9856,7 +9788,7 @@
         <v>139</v>
       </c>
       <c r="F45" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G45" s="111">
         <v>45017</v>
@@ -9865,7 +9797,7 @@
         <v>45046</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J45" s="92">
         <v>700000</v>
@@ -9893,7 +9825,7 @@
         <v>0.28735632183908044</v>
       </c>
       <c r="Q45" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R45" s="155">
         <v>0.13</v>
@@ -9918,7 +9850,7 @@
     </row>
     <row r="46" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B46" s="91" t="s">
         <v>162</v>
@@ -9933,7 +9865,7 @@
         <v>139</v>
       </c>
       <c r="F46" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G46" s="111">
         <v>45047</v>
@@ -9942,7 +9874,7 @@
         <v>45077</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J46" s="92">
         <v>700000</v>
@@ -9970,7 +9902,7 @@
         <v>0.28735632183908044</v>
       </c>
       <c r="Q46" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R46" s="155">
         <v>0.13</v>
@@ -9995,7 +9927,7 @@
     </row>
     <row r="47" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="91" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B47" s="91" t="s">
         <v>162</v>
@@ -10010,7 +9942,7 @@
         <v>139</v>
       </c>
       <c r="F47" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G47" s="111">
         <v>45078</v>
@@ -10019,7 +9951,7 @@
         <v>45107</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J47" s="92">
         <v>700000</v>
@@ -10047,7 +9979,7 @@
         <v>0.28735632183908044</v>
       </c>
       <c r="Q47" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R47" s="155">
         <v>0.13</v>
@@ -10072,7 +10004,7 @@
     </row>
     <row r="48" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B48" s="91" t="s">
         <v>162</v>
@@ -10087,7 +10019,7 @@
         <v>139</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G48" s="111">
         <v>44927</v>
@@ -10124,7 +10056,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q48" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R48" s="155">
         <v>0.13</v>
@@ -10134,7 +10066,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T48" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U48" s="203">
         <v>44938</v>
@@ -10145,11 +10077,9 @@
       <c r="W48" s="94"/>
       <c r="X48" s="94"/>
       <c r="Y48" s="94"/>
-      <c r="Z48" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z48" s="76"/>
       <c r="AA48" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB48" s="42">
         <v>0</v>
@@ -10160,7 +10090,7 @@
     </row>
     <row r="49" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B49" s="91" t="s">
         <v>162</v>
@@ -10175,7 +10105,7 @@
         <v>139</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G49" s="111">
         <v>44958</v>
@@ -10212,7 +10142,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q49" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R49" s="155">
         <v>0.13</v>
@@ -10222,7 +10152,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T49" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U49" s="203">
         <v>44938</v>
@@ -10233,9 +10163,7 @@
       <c r="W49" s="94"/>
       <c r="X49" s="94"/>
       <c r="Y49" s="94"/>
-      <c r="Z49" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z49" s="76"/>
       <c r="AA49" s="42" t="str">
         <f>IF(VLOOKUP($T49,'Havi béradatok'!$B:$E,2,FALSE)=F49,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10251,7 +10179,7 @@
     </row>
     <row r="50" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B50" s="91" t="s">
         <v>162</v>
@@ -10266,7 +10194,7 @@
         <v>139</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G50" s="111">
         <v>44986</v>
@@ -10303,7 +10231,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q50" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R50" s="155">
         <v>0.13</v>
@@ -10313,7 +10241,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T50" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U50" s="203">
         <v>44977</v>
@@ -10324,9 +10252,7 @@
       <c r="W50" s="94"/>
       <c r="X50" s="94"/>
       <c r="Y50" s="94"/>
-      <c r="Z50" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z50" s="76"/>
       <c r="AA50" s="42" t="str">
         <f>IF(VLOOKUP($T50,'Havi béradatok'!$B:$E,2,FALSE)=F50,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -10342,7 +10268,7 @@
     </row>
     <row r="51" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B51" s="91" t="s">
         <v>162</v>
@@ -10357,7 +10283,7 @@
         <v>139</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G51" s="111">
         <v>45017</v>
@@ -10366,7 +10292,7 @@
         <v>45046</v>
       </c>
       <c r="I51" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J51" s="92">
         <v>1100000</v>
@@ -10394,7 +10320,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q51" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R51" s="155">
         <v>0.13</v>
@@ -10404,7 +10330,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T51" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U51" s="203">
         <v>44977</v>
@@ -10419,7 +10345,7 @@
     </row>
     <row r="52" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B52" s="91" t="s">
         <v>162</v>
@@ -10434,7 +10360,7 @@
         <v>139</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G52" s="111">
         <v>45047</v>
@@ -10443,7 +10369,7 @@
         <v>45077</v>
       </c>
       <c r="I52" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J52" s="92">
         <v>1100000</v>
@@ -10471,7 +10397,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q52" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R52" s="155">
         <v>0.13</v>
@@ -10481,7 +10407,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T52" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U52" s="203">
         <v>44977</v>
@@ -10496,7 +10422,7 @@
     </row>
     <row r="53" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="91" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B53" s="91" t="s">
         <v>162</v>
@@ -10511,7 +10437,7 @@
         <v>139</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G53" s="111">
         <v>45078</v>
@@ -10520,7 +10446,7 @@
         <v>45107</v>
       </c>
       <c r="I53" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J53" s="92">
         <v>1100000</v>
@@ -10548,7 +10474,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q53" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R53" s="155">
         <v>0.13</v>
@@ -10558,7 +10484,7 @@
         <v>-1.3584117034004528E-7</v>
       </c>
       <c r="T53" s="234" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="U53" s="203">
         <v>44977</v>
@@ -10624,7 +10550,7 @@
         <v>1</v>
       </c>
       <c r="Q54" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R54" s="94"/>
       <c r="S54" s="106">
@@ -10641,9 +10567,7 @@
       <c r="Y54" s="94">
         <v>3</v>
       </c>
-      <c r="Z54" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z54" s="76"/>
     </row>
     <row r="55" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="91" t="s">
@@ -10698,7 +10622,7 @@
         <v>1</v>
       </c>
       <c r="Q55" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R55" s="94"/>
       <c r="S55" s="106">
@@ -10715,9 +10639,7 @@
       <c r="Y55" s="94">
         <v>3</v>
       </c>
-      <c r="Z55" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z55" s="76"/>
     </row>
     <row r="56" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="91" t="s">
@@ -10772,7 +10694,7 @@
         <v>1</v>
       </c>
       <c r="Q56" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R56" s="155">
         <v>0.13</v>
@@ -10793,9 +10715,7 @@
       <c r="Y56" s="94">
         <v>3</v>
       </c>
-      <c r="Z56" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z56" s="76"/>
     </row>
     <row r="57" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="91" t="s">
@@ -10850,7 +10770,7 @@
         <v>1</v>
       </c>
       <c r="Q57" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R57" s="155">
         <v>0.13</v>
@@ -10871,9 +10791,7 @@
       <c r="Y57" s="94">
         <v>3</v>
       </c>
-      <c r="Z57" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z57" s="76"/>
     </row>
     <row r="58" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="91" t="s">
@@ -10928,7 +10846,7 @@
         <v>1</v>
       </c>
       <c r="Q58" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R58" s="155">
         <v>0.13</v>
@@ -10949,9 +10867,7 @@
       <c r="Y58" s="94">
         <v>3</v>
       </c>
-      <c r="Z58" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z58" s="76"/>
     </row>
     <row r="59" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="91" t="s">
@@ -11006,7 +10922,7 @@
         <v>1</v>
       </c>
       <c r="Q59" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R59" s="155">
         <v>0.13</v>
@@ -11027,9 +10943,7 @@
       <c r="Y59" s="94">
         <v>3</v>
       </c>
-      <c r="Z59" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z59" s="76"/>
     </row>
     <row r="60" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="91" t="s">
@@ -11084,7 +10998,7 @@
         <v>1</v>
       </c>
       <c r="Q60" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R60" s="155">
         <v>0.13</v>
@@ -11105,9 +11019,7 @@
       <c r="Y60" s="94">
         <v>3</v>
       </c>
-      <c r="Z60" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z60" s="76"/>
     </row>
     <row r="61" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="91" t="s">
@@ -11162,7 +11074,7 @@
         <v>1</v>
       </c>
       <c r="Q61" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R61" s="155">
         <v>0.13</v>
@@ -11183,9 +11095,7 @@
       <c r="Y61" s="94">
         <v>3</v>
       </c>
-      <c r="Z61" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z61" s="76"/>
     </row>
     <row r="62" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="91" t="s">
@@ -11241,7 +11151,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q62" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R62" s="155">
         <v>0.13</v>
@@ -11262,9 +11172,7 @@
       <c r="Y62" s="94">
         <v>3</v>
       </c>
-      <c r="Z62" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z62" s="76"/>
     </row>
     <row r="63" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="91" t="s">
@@ -11320,7 +11228,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q63" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R63" s="155">
         <v>0.13</v>
@@ -11341,9 +11249,7 @@
       <c r="Y63" s="94">
         <v>3</v>
       </c>
-      <c r="Z63" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z63" s="76"/>
     </row>
     <row r="64" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="91" t="s">
@@ -11399,7 +11305,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q64" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R64" s="155">
         <v>0.13</v>
@@ -11420,9 +11326,7 @@
       <c r="Y64" s="94">
         <v>3</v>
       </c>
-      <c r="Z64" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z64" s="76"/>
     </row>
     <row r="65" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="91" t="s">
@@ -11478,7 +11382,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q65" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R65" s="155">
         <v>0.13</v>
@@ -11499,9 +11403,7 @@
       <c r="Y65" s="94">
         <v>3</v>
       </c>
-      <c r="Z65" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z65" s="76"/>
     </row>
     <row r="66" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="91" t="s">
@@ -11557,7 +11459,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q66" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R66" s="155">
         <v>0.13</v>
@@ -11567,7 +11469,7 @@
         <v>-8.1102507487607056E-7</v>
       </c>
       <c r="T66" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U66" s="203">
         <v>44725</v>
@@ -11578,17 +11480,15 @@
       <c r="W66" s="94"/>
       <c r="X66" s="94"/>
       <c r="Y66" s="94"/>
-      <c r="Z66" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z66" s="76"/>
       <c r="AA66" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB66" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC66" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="67" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11645,7 +11545,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q67" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R67" s="155">
         <v>0.13</v>
@@ -11655,7 +11555,7 @@
         <v>-7.0964819232077758E-7</v>
       </c>
       <c r="T67" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U67" s="203">
         <v>44725</v>
@@ -11666,17 +11566,15 @@
       <c r="W67" s="94"/>
       <c r="X67" s="94"/>
       <c r="Y67" s="94"/>
-      <c r="Z67" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z67" s="76"/>
       <c r="AA67" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB67" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC67" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="68" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -11733,7 +11631,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q68" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R68" s="155">
         <v>0.13</v>
@@ -11743,7 +11641,7 @@
         <v>-5.3828929869048636E-8</v>
       </c>
       <c r="T68" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U68" s="203">
         <v>44936</v>
@@ -11754,11 +11652,9 @@
       <c r="W68" s="94"/>
       <c r="X68" s="94"/>
       <c r="Y68" s="94"/>
-      <c r="Z68" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z68" s="76"/>
       <c r="AA68" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB68" s="42">
         <v>0</v>
@@ -11784,7 +11680,7 @@
         <v>139</v>
       </c>
       <c r="F69" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G69" s="111">
         <v>44958</v>
@@ -11821,7 +11717,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q69" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R69" s="155">
         <v>0.13</v>
@@ -11831,7 +11727,7 @@
         <v>-1.4354358879309359E-7</v>
       </c>
       <c r="T69" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U69" s="203">
         <v>44936</v>
@@ -11842,9 +11738,7 @@
       <c r="W69" s="94"/>
       <c r="X69" s="94"/>
       <c r="Y69" s="94"/>
-      <c r="Z69" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z69" s="76"/>
       <c r="AA69" s="42" t="str">
         <f>IF(VLOOKUP($T69,'Havi béradatok'!$B:$E,2,FALSE)=F69,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11875,7 +11769,7 @@
         <v>139</v>
       </c>
       <c r="F70" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G70" s="111">
         <v>44986</v>
@@ -11912,7 +11806,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q70" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R70" s="155">
         <v>0.13</v>
@@ -11922,7 +11816,7 @@
         <v>-1.4354358879309359E-7</v>
       </c>
       <c r="T70" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U70" s="203">
         <v>44936</v>
@@ -11933,9 +11827,7 @@
       <c r="W70" s="94"/>
       <c r="X70" s="94"/>
       <c r="Y70" s="94"/>
-      <c r="Z70" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z70" s="76"/>
       <c r="AA70" s="42" t="str">
         <f>IF(VLOOKUP($T70,'Havi béradatok'!$B:$E,2,FALSE)=F70,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -11966,7 +11858,7 @@
         <v>139</v>
       </c>
       <c r="F71" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G71" s="111">
         <v>45017</v>
@@ -11975,7 +11867,7 @@
         <v>45046</v>
       </c>
       <c r="I71" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J71" s="92">
         <v>640600</v>
@@ -12003,7 +11895,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q71" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R71" s="155">
         <v>0.13</v>
@@ -12013,7 +11905,7 @@
         <v>-1.4354358879309359E-7</v>
       </c>
       <c r="T71" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U71" s="203">
         <v>44936</v>
@@ -12043,7 +11935,7 @@
         <v>139</v>
       </c>
       <c r="F72" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G72" s="111">
         <v>45047</v>
@@ -12052,7 +11944,7 @@
         <v>45077</v>
       </c>
       <c r="I72" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J72" s="92">
         <v>640600</v>
@@ -12080,7 +11972,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q72" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R72" s="155">
         <v>0.13</v>
@@ -12090,7 +11982,7 @@
         <v>-1.4354358879309359E-7</v>
       </c>
       <c r="T72" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U72" s="203">
         <v>44936</v>
@@ -12120,7 +12012,7 @@
         <v>139</v>
       </c>
       <c r="F73" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G73" s="111">
         <v>45078</v>
@@ -12129,7 +12021,7 @@
         <v>45107</v>
       </c>
       <c r="I73" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J73" s="92">
         <v>640600</v>
@@ -12157,7 +12049,7 @@
         <v>0.94252873563218387</v>
       </c>
       <c r="Q73" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R73" s="155">
         <v>0.13</v>
@@ -12167,7 +12059,7 @@
         <v>-1.4354358879309359E-7</v>
       </c>
       <c r="T73" s="234" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="U73" s="203">
         <v>44936</v>
@@ -12182,7 +12074,7 @@
     </row>
     <row r="74" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B74" s="91" t="s">
         <v>62</v>
@@ -12197,7 +12089,7 @@
         <v>139</v>
       </c>
       <c r="F74" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G74" s="111">
         <v>44743</v>
@@ -12233,7 +12125,7 @@
         <v>0.57471264367816088</v>
       </c>
       <c r="Q74" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R74" s="155">
         <v>0.13</v>
@@ -12254,13 +12146,11 @@
       <c r="Y74" s="94">
         <v>3</v>
       </c>
-      <c r="Z74" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z74" s="76"/>
     </row>
     <row r="75" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B75" s="91" t="s">
         <v>62</v>
@@ -12275,7 +12165,7 @@
         <v>139</v>
       </c>
       <c r="F75" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G75" s="111">
         <v>44774</v>
@@ -12311,7 +12201,7 @@
         <v>0.57471264367816088</v>
       </c>
       <c r="Q75" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R75" s="155">
         <v>0.13</v>
@@ -12332,13 +12222,11 @@
       <c r="Y75" s="94">
         <v>3</v>
       </c>
-      <c r="Z75" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z75" s="76"/>
     </row>
     <row r="76" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B76" s="91" t="s">
         <v>62</v>
@@ -12353,7 +12241,7 @@
         <v>139</v>
       </c>
       <c r="F76" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G76" s="111">
         <v>44805</v>
@@ -12389,7 +12277,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q76" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R76" s="155">
         <v>0.13</v>
@@ -12410,13 +12298,11 @@
       <c r="Y76" s="94">
         <v>3</v>
       </c>
-      <c r="Z76" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z76" s="76"/>
     </row>
     <row r="77" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B77" s="91" t="s">
         <v>62</v>
@@ -12431,7 +12317,7 @@
         <v>139</v>
       </c>
       <c r="F77" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G77" s="111">
         <v>44835</v>
@@ -12467,7 +12353,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q77" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R77" s="155">
         <v>0.13</v>
@@ -12488,13 +12374,11 @@
       <c r="Y77" s="94">
         <v>3</v>
       </c>
-      <c r="Z77" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z77" s="76"/>
     </row>
     <row r="78" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B78" s="91" t="s">
         <v>62</v>
@@ -12509,7 +12393,7 @@
         <v>139</v>
       </c>
       <c r="F78" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G78" s="111">
         <v>44866</v>
@@ -12544,7 +12428,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q78" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R78" s="155">
         <v>0.13</v>
@@ -12554,7 +12438,7 @@
         <v>-4.7329276536833831E-7</v>
       </c>
       <c r="T78" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U78" s="203">
         <v>44799</v>
@@ -12565,22 +12449,20 @@
       <c r="W78" s="94"/>
       <c r="X78" s="94"/>
       <c r="Y78" s="94"/>
-      <c r="Z78" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z78" s="76"/>
       <c r="AA78" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB78" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC78" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="79" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B79" s="91" t="s">
         <v>62</v>
@@ -12595,7 +12477,7 @@
         <v>139</v>
       </c>
       <c r="F79" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G79" s="111">
         <v>44896</v>
@@ -12632,7 +12514,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q79" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R79" s="155">
         <v>0.13</v>
@@ -12642,7 +12524,7 @@
         <v>-4.7329276536833831E-7</v>
       </c>
       <c r="T79" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U79" s="203">
         <v>44799</v>
@@ -12653,22 +12535,20 @@
       <c r="W79" s="94"/>
       <c r="X79" s="94"/>
       <c r="Y79" s="94"/>
-      <c r="Z79" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z79" s="76"/>
       <c r="AA79" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB79" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="AB79" s="239" t="s">
-        <v>411</v>
-      </c>
       <c r="AC79" s="239" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="80" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B80" s="91" t="s">
         <v>62</v>
@@ -12683,7 +12563,7 @@
         <v>139</v>
       </c>
       <c r="F80" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G80" s="111">
         <v>44927</v>
@@ -12718,7 +12598,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q80" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R80" s="155">
         <v>0.13</v>
@@ -12728,7 +12608,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T80" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U80" s="203">
         <v>44799</v>
@@ -12739,11 +12619,9 @@
       <c r="W80" s="94"/>
       <c r="X80" s="94"/>
       <c r="Y80" s="94"/>
-      <c r="Z80" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z80" s="76"/>
       <c r="AA80" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB80" s="239">
         <v>44545</v>
@@ -12754,7 +12632,7 @@
     </row>
     <row r="81" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B81" s="91" t="s">
         <v>62</v>
@@ -12769,7 +12647,7 @@
         <v>139</v>
       </c>
       <c r="F81" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G81" s="111">
         <v>44958</v>
@@ -12804,7 +12682,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q81" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R81" s="155">
         <v>0.13</v>
@@ -12814,7 +12692,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T81" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U81" s="203">
         <v>44799</v>
@@ -12825,9 +12703,7 @@
       <c r="W81" s="94"/>
       <c r="X81" s="94"/>
       <c r="Y81" s="94"/>
-      <c r="Z81" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z81" s="76"/>
       <c r="AA81" s="42" t="str">
         <f>IF(VLOOKUP($T81,'Havi béradatok'!$B:$E,2,FALSE)=F81,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -12843,7 +12719,7 @@
     </row>
     <row r="82" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B82" s="91" t="s">
         <v>62</v>
@@ -12858,7 +12734,7 @@
         <v>139</v>
       </c>
       <c r="F82" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G82" s="111">
         <v>44986</v>
@@ -12893,7 +12769,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q82" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R82" s="155">
         <v>0.13</v>
@@ -12903,7 +12779,7 @@
         <v>-9.5685767936837252E-7</v>
       </c>
       <c r="T82" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U82" s="203">
         <v>44799</v>
@@ -12914,9 +12790,7 @@
       <c r="W82" s="94"/>
       <c r="X82" s="94"/>
       <c r="Y82" s="94"/>
-      <c r="Z82" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z82" s="76"/>
       <c r="AA82" s="42" t="str">
         <f>IF(VLOOKUP($T82,'Havi béradatok'!$B:$E,2,FALSE)=F82,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -12932,7 +12806,7 @@
     </row>
     <row r="83" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B83" s="91" t="s">
         <v>62</v>
@@ -12947,7 +12821,7 @@
         <v>139</v>
       </c>
       <c r="F83" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G83" s="111">
         <v>45017</v>
@@ -12956,7 +12830,7 @@
         <v>45046</v>
       </c>
       <c r="I83" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J83" s="92">
         <v>549000</v>
@@ -12984,7 +12858,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q83" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R83" s="155">
         <v>0.13</v>
@@ -12994,7 +12868,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T83" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U83" s="203">
         <v>44799</v>
@@ -13009,7 +12883,7 @@
     </row>
     <row r="84" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B84" s="91" t="s">
         <v>62</v>
@@ -13024,7 +12898,7 @@
         <v>139</v>
       </c>
       <c r="F84" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G84" s="111">
         <v>45047</v>
@@ -13033,7 +12907,7 @@
         <v>45077</v>
       </c>
       <c r="I84" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J84" s="92">
         <v>549000</v>
@@ -13061,7 +12935,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q84" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R84" s="155">
         <v>0.13</v>
@@ -13071,7 +12945,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T84" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U84" s="203">
         <v>44799</v>
@@ -13086,7 +12960,7 @@
     </row>
     <row r="85" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B85" s="91" t="s">
         <v>62</v>
@@ -13101,7 +12975,7 @@
         <v>139</v>
       </c>
       <c r="F85" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G85" s="111">
         <v>45078</v>
@@ -13110,7 +12984,7 @@
         <v>45107</v>
       </c>
       <c r="I85" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J85" s="92">
         <v>549000</v>
@@ -13138,7 +13012,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q85" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R85" s="155">
         <v>0.13</v>
@@ -13148,7 +13022,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T85" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U85" s="203">
         <v>44799</v>
@@ -13163,7 +13037,7 @@
     </row>
     <row r="86" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B86" s="91" t="s">
         <v>62</v>
@@ -13178,7 +13052,7 @@
         <v>139</v>
       </c>
       <c r="F86" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G86" s="111">
         <v>45108</v>
@@ -13187,7 +13061,7 @@
         <v>45138</v>
       </c>
       <c r="I86" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J86" s="92">
         <v>549000</v>
@@ -13215,7 +13089,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q86" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R86" s="155">
         <v>0.13</v>
@@ -13225,7 +13099,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T86" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U86" s="203">
         <v>44799</v>
@@ -13240,7 +13114,7 @@
     </row>
     <row r="87" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B87" s="91" t="s">
         <v>62</v>
@@ -13255,7 +13129,7 @@
         <v>139</v>
       </c>
       <c r="F87" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G87" s="111">
         <v>45139</v>
@@ -13264,7 +13138,7 @@
         <v>45169</v>
       </c>
       <c r="I87" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J87" s="92">
         <v>549000</v>
@@ -13292,7 +13166,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q87" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R87" s="155">
         <v>0.13</v>
@@ -13302,7 +13176,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T87" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U87" s="203">
         <v>44799</v>
@@ -13317,7 +13191,7 @@
     </row>
     <row r="88" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B88" s="91" t="s">
         <v>62</v>
@@ -13332,7 +13206,7 @@
         <v>139</v>
       </c>
       <c r="F88" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G88" s="111">
         <v>45170</v>
@@ -13341,7 +13215,7 @@
         <v>45199</v>
       </c>
       <c r="I88" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J88" s="92">
         <v>549000</v>
@@ -13369,7 +13243,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q88" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R88" s="155">
         <v>0.13</v>
@@ -13379,7 +13253,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T88" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U88" s="203">
         <v>44799</v>
@@ -13394,7 +13268,7 @@
     </row>
     <row r="89" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="91" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B89" s="91" t="s">
         <v>62</v>
@@ -13409,7 +13283,7 @@
         <v>139</v>
       </c>
       <c r="F89" s="95" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G89" s="111">
         <v>45200</v>
@@ -13418,7 +13292,7 @@
         <v>45230</v>
       </c>
       <c r="I89" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J89" s="92">
         <v>549000</v>
@@ -13446,7 +13320,7 @@
         <v>0.45977011494252873</v>
       </c>
       <c r="Q89" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R89" s="155">
         <v>0.13</v>
@@ -13456,7 +13330,7 @@
         <v>-3.7686074993992236E-7</v>
       </c>
       <c r="T89" s="234" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="U89" s="203">
         <v>44799</v>
@@ -13522,7 +13396,7 @@
         <v>0.18390804597701149</v>
       </c>
       <c r="Q90" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R90" s="155">
         <v>0.13</v>
@@ -13594,7 +13468,7 @@
         <v>0.20114942528735633</v>
       </c>
       <c r="Q91" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R91" s="155">
         <v>0.13</v>
@@ -13611,9 +13485,7 @@
       <c r="Y91" s="94">
         <v>3</v>
       </c>
-      <c r="Z91" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z91" s="76"/>
     </row>
     <row r="92" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="91" t="s">
@@ -13668,7 +13540,7 @@
         <v>0.18965517241379309</v>
       </c>
       <c r="Q92" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R92" s="155">
         <v>0.13</v>
@@ -13687,9 +13559,7 @@
       <c r="Y92" s="94">
         <v>3</v>
       </c>
-      <c r="Z92" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z92" s="76"/>
     </row>
     <row r="93" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="91" t="s">
@@ -13744,7 +13614,7 @@
         <v>0.18965517241379309</v>
       </c>
       <c r="Q93" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R93" s="155">
         <v>0.13</v>
@@ -13763,9 +13633,7 @@
       <c r="Y93" s="94">
         <v>3</v>
       </c>
-      <c r="Z93" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z93" s="76"/>
     </row>
     <row r="94" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="91" t="s">
@@ -13820,7 +13688,7 @@
         <v>0.21839080459770116</v>
       </c>
       <c r="Q94" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R94" s="155">
         <v>0.13</v>
@@ -13841,9 +13709,7 @@
       <c r="Y94" s="94">
         <v>3</v>
       </c>
-      <c r="Z94" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z94" s="76"/>
     </row>
     <row r="95" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="91" t="s">
@@ -13899,7 +13765,7 @@
         <v>0.21839080459770116</v>
       </c>
       <c r="Q95" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R95" s="155">
         <v>0.13</v>
@@ -13920,9 +13786,7 @@
       <c r="Y95" s="94">
         <v>3</v>
       </c>
-      <c r="Z95" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z95" s="76"/>
     </row>
     <row r="96" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="91" t="s">
@@ -13977,7 +13841,7 @@
         <v>0.21839080459770116</v>
       </c>
       <c r="Q96" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R96" s="155">
         <v>0.13</v>
@@ -13998,9 +13862,7 @@
       <c r="Y96" s="94">
         <v>3</v>
       </c>
-      <c r="Z96" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z96" s="76"/>
     </row>
     <row r="97" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="91" t="s">
@@ -14056,7 +13918,7 @@
         <v>0.25862068965517243</v>
       </c>
       <c r="Q97" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R97" s="155">
         <v>0.13</v>
@@ -14077,9 +13939,7 @@
       <c r="Y97" s="94">
         <v>3</v>
       </c>
-      <c r="Z97" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z97" s="76"/>
     </row>
     <row r="98" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="91" t="s">
@@ -14135,7 +13995,7 @@
         <v>0.25862068965517243</v>
       </c>
       <c r="Q98" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R98" s="155">
         <v>0.13</v>
@@ -14145,7 +14005,7 @@
         <v>-3.377079521027504E-7</v>
       </c>
       <c r="T98" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U98" s="203">
         <v>44831</v>
@@ -14156,17 +14016,15 @@
       <c r="W98" s="94"/>
       <c r="X98" s="94"/>
       <c r="Y98" s="94"/>
-      <c r="Z98" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z98" s="76"/>
       <c r="AA98" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB98" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC98" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="99" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14223,7 +14081,7 @@
         <v>0.25862068965517243</v>
       </c>
       <c r="Q99" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R99" s="155">
         <v>0.13</v>
@@ -14233,7 +14091,7 @@
         <v>6.9257272616862764E-7</v>
       </c>
       <c r="T99" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U99" s="203">
         <v>44831</v>
@@ -14244,17 +14102,15 @@
       <c r="W99" s="94"/>
       <c r="X99" s="94"/>
       <c r="Y99" s="94"/>
-      <c r="Z99" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z99" s="76"/>
       <c r="AA99" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB99" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC99" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="100" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -14311,7 +14167,7 @@
         <v>0.2413793103448276</v>
       </c>
       <c r="Q100" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R100" s="155">
         <v>0.13</v>
@@ -14321,7 +14177,7 @@
         <v>1.3626855807635785E-7</v>
       </c>
       <c r="T100" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U100" s="203">
         <v>44936</v>
@@ -14332,11 +14188,9 @@
       <c r="W100" s="94"/>
       <c r="X100" s="94"/>
       <c r="Y100" s="94"/>
-      <c r="Z100" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z100" s="76"/>
       <c r="AA100" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB100" s="42">
         <v>0</v>
@@ -14399,7 +14253,7 @@
         <v>0.2413793103448276</v>
       </c>
       <c r="Q101" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R101" s="155">
         <v>0.13</v>
@@ -14409,7 +14263,7 @@
         <v>-2.1403416297638422E-7</v>
       </c>
       <c r="T101" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U101" s="203">
         <v>44936</v>
@@ -14420,9 +14274,7 @@
       <c r="W101" s="94"/>
       <c r="X101" s="94"/>
       <c r="Y101" s="94"/>
-      <c r="Z101" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z101" s="76"/>
       <c r="AA101" s="42" t="str">
         <f>IF(VLOOKUP($T101,'Havi béradatok'!$B:$E,2,FALSE)=F101,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14490,7 +14342,7 @@
         <v>0.22988505747126436</v>
       </c>
       <c r="Q102" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R102" s="155">
         <v>0.13</v>
@@ -14500,7 +14352,7 @@
         <v>-8.6569405949310507E-8</v>
       </c>
       <c r="T102" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U102" s="203">
         <v>44980</v>
@@ -14511,9 +14363,7 @@
       <c r="W102" s="94"/>
       <c r="X102" s="94"/>
       <c r="Y102" s="94"/>
-      <c r="Z102" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z102" s="76"/>
       <c r="AA102" s="42" t="str">
         <f>IF(VLOOKUP($T102,'Havi béradatok'!$B:$E,2,FALSE)=F102,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14553,7 +14403,7 @@
         <v>45046</v>
       </c>
       <c r="I103" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J103" s="92">
         <v>531100</v>
@@ -14581,7 +14431,7 @@
         <v>0.22988505747126436</v>
       </c>
       <c r="Q103" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R103" s="155">
         <v>0.13</v>
@@ -14591,7 +14441,7 @@
         <v>-8.6569405949310507E-8</v>
       </c>
       <c r="T103" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U103" s="203">
         <v>44980</v>
@@ -14630,7 +14480,7 @@
         <v>45077</v>
       </c>
       <c r="I104" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J104" s="92">
         <v>531100</v>
@@ -14658,7 +14508,7 @@
         <v>0.22988505747126436</v>
       </c>
       <c r="Q104" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R104" s="155">
         <v>0.13</v>
@@ -14668,7 +14518,7 @@
         <v>-8.6569405949310507E-8</v>
       </c>
       <c r="T104" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U104" s="203">
         <v>44980</v>
@@ -14707,7 +14557,7 @@
         <v>45107</v>
       </c>
       <c r="I105" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J105" s="92">
         <v>531100</v>
@@ -14735,7 +14585,7 @@
         <v>0.22988505747126436</v>
       </c>
       <c r="Q105" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R105" s="155">
         <v>0.13</v>
@@ -14745,7 +14595,7 @@
         <v>-8.6569405949310507E-8</v>
       </c>
       <c r="T105" s="234" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="U105" s="203">
         <v>44980</v>
@@ -14760,7 +14610,7 @@
     </row>
     <row r="106" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B106" s="91" t="s">
         <v>162</v>
@@ -14775,7 +14625,7 @@
         <v>139</v>
       </c>
       <c r="F106" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G106" s="111">
         <v>44927</v>
@@ -14812,7 +14662,7 @@
         <v>0.34482758620689657</v>
       </c>
       <c r="Q106" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R106" s="155">
         <v>0.13</v>
@@ -14822,7 +14672,7 @@
         <v>-2.3988005992681138E-7</v>
       </c>
       <c r="T106" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U106" s="203">
         <v>44938</v>
@@ -14833,11 +14683,9 @@
       <c r="W106" s="94"/>
       <c r="X106" s="94"/>
       <c r="Y106" s="94"/>
-      <c r="Z106" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z106" s="76"/>
       <c r="AA106" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB106" s="239">
         <v>1</v>
@@ -14848,7 +14696,7 @@
     </row>
     <row r="107" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B107" s="91" t="s">
         <v>162</v>
@@ -14863,7 +14711,7 @@
         <v>139</v>
       </c>
       <c r="F107" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G107" s="111">
         <v>44958</v>
@@ -14900,7 +14748,7 @@
         <v>0.34482758620689657</v>
       </c>
       <c r="Q107" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R107" s="155">
         <v>0.13</v>
@@ -14910,7 +14758,7 @@
         <v>-2.3988005992681138E-7</v>
       </c>
       <c r="T107" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U107" s="203">
         <v>44938</v>
@@ -14921,9 +14769,7 @@
       <c r="W107" s="94"/>
       <c r="X107" s="94"/>
       <c r="Y107" s="94"/>
-      <c r="Z107" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z107" s="76"/>
       <c r="AA107" s="42" t="str">
         <f>IF(VLOOKUP($T107,'Havi béradatok'!$B:$E,2,FALSE)=F107,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -14939,7 +14785,7 @@
     </row>
     <row r="108" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B108" s="91" t="s">
         <v>162</v>
@@ -14954,7 +14800,7 @@
         <v>139</v>
       </c>
       <c r="F108" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G108" s="111">
         <v>44986</v>
@@ -14991,7 +14837,7 @@
         <v>0.34482758620689657</v>
       </c>
       <c r="Q108" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R108" s="155">
         <v>0.13</v>
@@ -15001,7 +14847,7 @@
         <v>-2.3988005992681138E-7</v>
       </c>
       <c r="T108" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U108" s="203">
         <v>44938</v>
@@ -15012,9 +14858,7 @@
       <c r="W108" s="94"/>
       <c r="X108" s="94"/>
       <c r="Y108" s="94"/>
-      <c r="Z108" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z108" s="76"/>
       <c r="AA108" s="42" t="str">
         <f>IF(VLOOKUP($T108,'Havi béradatok'!$B:$E,2,FALSE)=F108,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -15030,7 +14874,7 @@
     </row>
     <row r="109" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B109" s="91" t="s">
         <v>162</v>
@@ -15045,7 +14889,7 @@
         <v>139</v>
       </c>
       <c r="F109" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G109" s="111">
         <v>45017</v>
@@ -15054,7 +14898,7 @@
         <v>45046</v>
       </c>
       <c r="I109" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J109" s="92">
         <v>1150000</v>
@@ -15082,7 +14926,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q109" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R109" s="155">
         <v>0.13</v>
@@ -15092,7 +14936,7 @@
         <v>-1.1994002996340569E-7</v>
       </c>
       <c r="T109" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U109" s="203">
         <v>45002</v>
@@ -15107,7 +14951,7 @@
     </row>
     <row r="110" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B110" s="91" t="s">
         <v>162</v>
@@ -15122,7 +14966,7 @@
         <v>139</v>
       </c>
       <c r="F110" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G110" s="111">
         <v>45047</v>
@@ -15131,7 +14975,7 @@
         <v>45077</v>
       </c>
       <c r="I110" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J110" s="92">
         <v>1150000</v>
@@ -15159,7 +15003,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q110" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R110" s="155">
         <v>0.13</v>
@@ -15169,7 +15013,7 @@
         <v>-1.1994002996340569E-7</v>
       </c>
       <c r="T110" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U110" s="203">
         <v>45002</v>
@@ -15184,7 +15028,7 @@
     </row>
     <row r="111" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B111" s="91" t="s">
         <v>162</v>
@@ -15199,7 +15043,7 @@
         <v>139</v>
       </c>
       <c r="F111" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G111" s="111">
         <v>45078</v>
@@ -15208,7 +15052,7 @@
         <v>45107</v>
       </c>
       <c r="I111" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J111" s="92">
         <v>1150000</v>
@@ -15236,7 +15080,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q111" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R111" s="155">
         <v>0.13</v>
@@ -15246,7 +15090,7 @@
         <v>-1.1994002996340569E-7</v>
       </c>
       <c r="T111" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U111" s="203">
         <v>45002</v>
@@ -15261,7 +15105,7 @@
     </row>
     <row r="112" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B112" s="91" t="s">
         <v>162</v>
@@ -15276,7 +15120,7 @@
         <v>139</v>
       </c>
       <c r="F112" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G112" s="111">
         <v>45108</v>
@@ -15285,7 +15129,7 @@
         <v>45138</v>
       </c>
       <c r="I112" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J112" s="92">
         <v>1150000</v>
@@ -15313,7 +15157,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q112" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R112" s="155">
         <v>0.13</v>
@@ -15323,7 +15167,7 @@
         <v>-1.1994002996340569E-7</v>
       </c>
       <c r="T112" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U112" s="203">
         <v>45002</v>
@@ -15338,7 +15182,7 @@
     </row>
     <row r="113" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="91" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B113" s="91" t="s">
         <v>162</v>
@@ -15353,7 +15197,7 @@
         <v>139</v>
       </c>
       <c r="F113" s="95" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G113" s="111">
         <v>45139</v>
@@ -15362,7 +15206,7 @@
         <v>45169</v>
       </c>
       <c r="I113" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J113" s="92">
         <v>1150000</v>
@@ -15390,7 +15234,7 @@
         <v>0.17241379310344829</v>
       </c>
       <c r="Q113" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R113" s="155">
         <v>0.13</v>
@@ -15400,7 +15244,7 @@
         <v>-1.1994002996340569E-7</v>
       </c>
       <c r="T113" s="234" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="U113" s="203">
         <v>45002</v>
@@ -15466,7 +15310,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q114" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R114" s="155">
         <v>0.13</v>
@@ -15542,7 +15386,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q115" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R115" s="155">
         <v>0.13</v>
@@ -15563,9 +15407,7 @@
       <c r="Y115" s="94">
         <v>3</v>
       </c>
-      <c r="Z115" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z115" s="76"/>
     </row>
     <row r="116" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="91" t="s">
@@ -15620,7 +15462,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q116" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R116" s="155">
         <v>0.13</v>
@@ -15641,9 +15483,7 @@
       <c r="Y116" s="94">
         <v>3</v>
       </c>
-      <c r="Z116" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z116" s="76"/>
     </row>
     <row r="117" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="91" t="s">
@@ -15698,7 +15538,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q117" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R117" s="155">
         <v>0.13</v>
@@ -15719,9 +15559,7 @@
       <c r="Y117" s="94">
         <v>3</v>
       </c>
-      <c r="Z117" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z117" s="76"/>
     </row>
     <row r="118" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="91" t="s">
@@ -15776,7 +15614,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q118" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R118" s="155">
         <v>0.13</v>
@@ -15797,9 +15635,7 @@
       <c r="Y118" s="94">
         <v>3</v>
       </c>
-      <c r="Z118" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z118" s="76"/>
     </row>
     <row r="119" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="91" t="s">
@@ -15855,7 +15691,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q119" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R119" s="155">
         <v>0.13</v>
@@ -15876,9 +15712,7 @@
       <c r="Y119" s="94">
         <v>3</v>
       </c>
-      <c r="Z119" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z119" s="76"/>
     </row>
     <row r="120" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="91" t="s">
@@ -15933,7 +15767,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q120" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R120" s="155">
         <v>0.13</v>
@@ -15954,9 +15788,7 @@
       <c r="Y120" s="94">
         <v>3</v>
       </c>
-      <c r="Z120" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z120" s="76"/>
     </row>
     <row r="121" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="91" t="s">
@@ -16012,7 +15844,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q121" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R121" s="155">
         <v>0.13</v>
@@ -16033,9 +15865,7 @@
       <c r="Y121" s="94">
         <v>3</v>
       </c>
-      <c r="Z121" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z121" s="76"/>
     </row>
     <row r="122" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="91" t="s">
@@ -16090,7 +15920,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q122" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R122" s="155">
         <v>0.13</v>
@@ -16100,7 +15930,7 @@
         <v>-1.401738155271115E-7</v>
       </c>
       <c r="T122" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U122" s="203">
         <v>44797</v>
@@ -16111,17 +15941,15 @@
       <c r="W122" s="94"/>
       <c r="X122" s="94"/>
       <c r="Y122" s="94"/>
-      <c r="Z122" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z122" s="76"/>
       <c r="AA122" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB122" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC122" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="123" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16177,7 +16005,7 @@
         <v>0.19540229885057472</v>
       </c>
       <c r="Q123" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R123" s="155">
         <v>0.13</v>
@@ -16187,7 +16015,7 @@
         <v>-1.401738155271115E-7</v>
       </c>
       <c r="T123" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U123" s="203">
         <v>44797</v>
@@ -16198,17 +16026,15 @@
       <c r="W123" s="94"/>
       <c r="X123" s="94"/>
       <c r="Y123" s="94"/>
-      <c r="Z123" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z123" s="76"/>
       <c r="AA123" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB123" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="AB123" s="239" t="s">
-        <v>411</v>
-      </c>
       <c r="AC123" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="124" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -16265,7 +16091,7 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="Q124" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R124" s="155">
         <v>0.13</v>
@@ -16275,7 +16101,7 @@
         <v>1.2315270936369416E-7</v>
       </c>
       <c r="T124" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U124" s="203">
         <v>44945</v>
@@ -16286,11 +16112,9 @@
       <c r="W124" s="94"/>
       <c r="X124" s="94"/>
       <c r="Y124" s="94"/>
-      <c r="Z124" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z124" s="76"/>
       <c r="AA124" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB124" s="42">
         <v>0</v>
@@ -16316,7 +16140,7 @@
         <v>139</v>
       </c>
       <c r="F125" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G125" s="111">
         <v>44958</v>
@@ -16353,7 +16177,7 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="Q125" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R125" s="155">
         <v>0.13</v>
@@ -16363,7 +16187,7 @@
         <v>1.2315270936369416E-7</v>
       </c>
       <c r="T125" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U125" s="203">
         <v>44945</v>
@@ -16374,9 +16198,7 @@
       <c r="W125" s="94"/>
       <c r="X125" s="94"/>
       <c r="Y125" s="94"/>
-      <c r="Z125" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z125" s="76"/>
       <c r="AA125" s="42" t="str">
         <f>IF(VLOOKUP($T125,'Havi béradatok'!$B:$E,2,FALSE)=F125,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -16407,7 +16229,7 @@
         <v>139</v>
       </c>
       <c r="F126" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G126" s="111">
         <v>44986</v>
@@ -16444,7 +16266,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q126" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R126" s="155">
         <v>0.13</v>
@@ -16454,7 +16276,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T126" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U126" s="203">
         <v>44998</v>
@@ -16465,9 +16287,7 @@
       <c r="W126" s="94"/>
       <c r="X126" s="94"/>
       <c r="Y126" s="94"/>
-      <c r="Z126" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z126" s="76"/>
       <c r="AA126" s="42" t="str">
         <f>IF(VLOOKUP($T126,'Havi béradatok'!$B:$E,2,FALSE)=F126,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -16498,7 +16318,7 @@
         <v>139</v>
       </c>
       <c r="F127" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G127" s="111">
         <v>45017</v>
@@ -16507,7 +16327,7 @@
         <v>45046</v>
       </c>
       <c r="I127" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J127" s="92">
         <v>840000</v>
@@ -16535,7 +16355,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q127" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R127" s="155">
         <v>0.13</v>
@@ -16545,7 +16365,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T127" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U127" s="203">
         <v>44998</v>
@@ -16575,7 +16395,7 @@
         <v>139</v>
       </c>
       <c r="F128" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G128" s="111">
         <v>45047</v>
@@ -16584,7 +16404,7 @@
         <v>45077</v>
       </c>
       <c r="I128" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J128" s="92">
         <v>840000</v>
@@ -16612,7 +16432,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q128" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R128" s="155">
         <v>0.13</v>
@@ -16622,7 +16442,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T128" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U128" s="203">
         <v>45036</v>
@@ -16650,7 +16470,7 @@
         <v>139</v>
       </c>
       <c r="F129" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G129" s="111">
         <v>45078</v>
@@ -16659,7 +16479,7 @@
         <v>45107</v>
       </c>
       <c r="I129" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J129" s="92">
         <v>840000</v>
@@ -16687,7 +16507,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q129" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R129" s="155">
         <v>0.13</v>
@@ -16697,7 +16517,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T129" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U129" s="203">
         <v>45036</v>
@@ -16762,7 +16582,7 @@
         <v>5.7471264367816091E-2</v>
       </c>
       <c r="Q130" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R130" s="94"/>
       <c r="S130" s="106">
@@ -16781,9 +16601,7 @@
       <c r="Y130" s="94">
         <v>3</v>
       </c>
-      <c r="Z130" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z130" s="76"/>
     </row>
     <row r="131" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="91" t="s">
@@ -16838,7 +16656,7 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="Q131" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R131" s="94"/>
       <c r="S131" s="106">
@@ -16855,9 +16673,7 @@
       <c r="Y131" s="94">
         <v>3</v>
       </c>
-      <c r="Z131" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z131" s="76"/>
     </row>
     <row r="132" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="91" t="s">
@@ -16912,7 +16728,7 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="Q132" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R132" s="155">
         <v>0.13</v>
@@ -16931,9 +16747,7 @@
       <c r="Y132" s="94">
         <v>3</v>
       </c>
-      <c r="Z132" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z132" s="76"/>
     </row>
     <row r="133" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="91" t="s">
@@ -16988,7 +16802,7 @@
         <v>0.1206896551724138</v>
       </c>
       <c r="Q133" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R133" s="155">
         <v>0.13</v>
@@ -17007,9 +16821,7 @@
       <c r="Y133" s="94">
         <v>3</v>
       </c>
-      <c r="Z133" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z133" s="76"/>
     </row>
     <row r="134" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="91" t="s">
@@ -17064,7 +16876,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q134" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R134" s="155">
         <v>0.13</v>
@@ -17140,7 +16952,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q135" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R135" s="155">
         <v>0.13</v>
@@ -17161,9 +16973,7 @@
       <c r="Y135" s="94">
         <v>3</v>
       </c>
-      <c r="Z135" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z135" s="76"/>
     </row>
     <row r="136" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="91" t="s">
@@ -17218,7 +17028,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q136" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R136" s="155">
         <v>0.13</v>
@@ -17239,9 +17049,7 @@
       <c r="Y136" s="94">
         <v>3</v>
       </c>
-      <c r="Z136" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z136" s="76"/>
     </row>
     <row r="137" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="91" t="s">
@@ -17296,7 +17104,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q137" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R137" s="155">
         <v>0.13</v>
@@ -17317,9 +17125,7 @@
       <c r="Y137" s="94">
         <v>3</v>
       </c>
-      <c r="Z137" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z137" s="76"/>
     </row>
     <row r="138" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="91" t="s">
@@ -17374,7 +17180,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q138" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R138" s="155">
         <v>0.13</v>
@@ -17395,9 +17201,7 @@
       <c r="Y138" s="94">
         <v>3</v>
       </c>
-      <c r="Z138" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z138" s="76"/>
     </row>
     <row r="139" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="91" t="s">
@@ -17453,7 +17257,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q139" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R139" s="155">
         <v>0.13</v>
@@ -17474,9 +17278,7 @@
       <c r="Y139" s="94">
         <v>3</v>
       </c>
-      <c r="Z139" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z139" s="76"/>
     </row>
     <row r="140" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="91" t="s">
@@ -17531,7 +17333,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q140" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R140" s="155">
         <v>0.13</v>
@@ -17552,9 +17354,7 @@
       <c r="Y140" s="94">
         <v>3</v>
       </c>
-      <c r="Z140" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z140" s="76"/>
     </row>
     <row r="141" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="91" t="s">
@@ -17610,7 +17410,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q141" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R141" s="155">
         <v>0.13</v>
@@ -17631,9 +17431,7 @@
       <c r="Y141" s="94">
         <v>3</v>
       </c>
-      <c r="Z141" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z141" s="76"/>
     </row>
     <row r="142" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="91" t="s">
@@ -17688,7 +17486,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q142" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R142" s="155">
         <v>0.13</v>
@@ -17698,7 +17496,7 @@
         <v>3.0838239417629865E-7</v>
       </c>
       <c r="T142" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U142" s="203">
         <v>44797</v>
@@ -17709,17 +17507,15 @@
       <c r="W142" s="94"/>
       <c r="X142" s="94"/>
       <c r="Y142" s="94"/>
-      <c r="Z142" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z142" s="76"/>
       <c r="AA142" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB142" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC142" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="143" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17775,7 +17571,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q143" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R143" s="155">
         <v>0.13</v>
@@ -17785,7 +17581,7 @@
         <v>3.0838239417629865E-7</v>
       </c>
       <c r="T143" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U143" s="203">
         <v>44797</v>
@@ -17796,17 +17592,15 @@
       <c r="W143" s="94"/>
       <c r="X143" s="94"/>
       <c r="Y143" s="94"/>
-      <c r="Z143" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z143" s="76"/>
       <c r="AA143" s="42" t="s">
+        <v>409</v>
+      </c>
+      <c r="AB143" s="239" t="s">
         <v>410</v>
       </c>
-      <c r="AB143" s="239" t="s">
-        <v>411</v>
-      </c>
       <c r="AC143" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="144" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -17863,7 +17657,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q144" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R144" s="155">
         <v>0.13</v>
@@ -17873,7 +17667,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T144" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U144" s="203">
         <v>44945</v>
@@ -17884,11 +17678,9 @@
       <c r="W144" s="94"/>
       <c r="X144" s="94"/>
       <c r="Y144" s="94"/>
-      <c r="Z144" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z144" s="76"/>
       <c r="AA144" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB144" s="42">
         <v>0</v>
@@ -17914,7 +17706,7 @@
         <v>12</v>
       </c>
       <c r="F145" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G145" s="111">
         <v>44958</v>
@@ -17951,7 +17743,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q145" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R145" s="155">
         <v>0.13</v>
@@ -17961,7 +17753,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T145" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U145" s="203">
         <v>44945</v>
@@ -17972,9 +17764,7 @@
       <c r="W145" s="94"/>
       <c r="X145" s="94"/>
       <c r="Y145" s="94"/>
-      <c r="Z145" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z145" s="76"/>
       <c r="AA145" s="42" t="str">
         <f>IF(VLOOKUP($T145,'Havi béradatok'!$B:$E,2,FALSE)=F145,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -18005,7 +17795,7 @@
         <v>12</v>
       </c>
       <c r="F146" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G146" s="111">
         <v>44986</v>
@@ -18042,7 +17832,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q146" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R146" s="155">
         <v>0.13</v>
@@ -18052,7 +17842,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T146" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U146" s="203">
         <v>44998</v>
@@ -18063,9 +17853,7 @@
       <c r="W146" s="94"/>
       <c r="X146" s="94"/>
       <c r="Y146" s="94"/>
-      <c r="Z146" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z146" s="76"/>
       <c r="AA146" s="42" t="str">
         <f>IF(VLOOKUP($T146,'Havi béradatok'!$B:$E,2,FALSE)=F146,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -18096,7 +17884,7 @@
         <v>12</v>
       </c>
       <c r="F147" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G147" s="111">
         <v>45017</v>
@@ -18105,7 +17893,7 @@
         <v>45046</v>
       </c>
       <c r="I147" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J147" s="92">
         <v>840000</v>
@@ -18133,7 +17921,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q147" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R147" s="155">
         <v>0.13</v>
@@ -18143,7 +17931,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T147" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U147" s="203">
         <v>44998</v>
@@ -18173,7 +17961,7 @@
         <v>12</v>
       </c>
       <c r="F148" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G148" s="111">
         <v>45047</v>
@@ -18182,7 +17970,7 @@
         <v>45077</v>
       </c>
       <c r="I148" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J148" s="92">
         <v>840000</v>
@@ -18210,7 +17998,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q148" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R148" s="155">
         <v>0.13</v>
@@ -18220,7 +18008,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T148" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U148" s="203">
         <v>45036</v>
@@ -18248,7 +18036,7 @@
         <v>12</v>
       </c>
       <c r="F149" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G149" s="111">
         <v>45078</v>
@@ -18257,7 +18045,7 @@
         <v>45107</v>
       </c>
       <c r="I149" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J149" s="92">
         <v>840000</v>
@@ -18285,7 +18073,7 @@
         <v>0.27011494252873564</v>
       </c>
       <c r="Q149" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R149" s="155">
         <v>0.13</v>
@@ -18295,7 +18083,7 @@
         <v>-5.3366174057600801E-7</v>
       </c>
       <c r="T149" s="234" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="U149" s="203">
         <v>45036</v>
@@ -18359,7 +18147,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q150" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R150" s="94"/>
       <c r="S150" s="106">
@@ -18376,9 +18164,7 @@
       <c r="Y150" s="94">
         <v>3</v>
       </c>
-      <c r="Z150" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z150" s="76"/>
     </row>
     <row r="151" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="91" t="s">
@@ -18433,7 +18219,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q151" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R151" s="94"/>
       <c r="S151" s="106">
@@ -18505,7 +18291,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q152" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R152" s="155">
         <v>0.13</v>
@@ -18579,7 +18365,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q153" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R153" s="155">
         <v>0.13</v>
@@ -18598,9 +18384,7 @@
       <c r="Y153" s="94">
         <v>3</v>
       </c>
-      <c r="Z153" s="77">
-        <v>1</v>
-      </c>
+      <c r="Z153" s="77"/>
     </row>
     <row r="154" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="91" t="s">
@@ -18655,7 +18439,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q154" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R154" s="155">
         <v>0.13</v>
@@ -18674,9 +18458,7 @@
       <c r="Y154" s="94">
         <v>3</v>
       </c>
-      <c r="Z154" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z154" s="76"/>
     </row>
     <row r="155" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="91" t="s">
@@ -18731,7 +18513,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q155" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R155" s="155">
         <v>0.13</v>
@@ -18752,9 +18534,7 @@
       <c r="Y155" s="94">
         <v>3</v>
       </c>
-      <c r="Z155" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z155" s="76"/>
     </row>
     <row r="156" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="91" t="s">
@@ -18809,7 +18589,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q156" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R156" s="155">
         <v>0.13</v>
@@ -18830,9 +18610,7 @@
       <c r="Y156" s="94">
         <v>3</v>
       </c>
-      <c r="Z156" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z156" s="76"/>
     </row>
     <row r="157" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="91" t="s">
@@ -18887,7 +18665,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q157" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R157" s="155">
         <v>0.13</v>
@@ -18908,9 +18686,7 @@
       <c r="Y157" s="94">
         <v>3</v>
       </c>
-      <c r="Z157" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z157" s="76"/>
     </row>
     <row r="158" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="91" t="s">
@@ -18965,7 +18741,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q158" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R158" s="155">
         <v>0.13</v>
@@ -18986,9 +18762,7 @@
       <c r="Y158" s="94">
         <v>3</v>
       </c>
-      <c r="Z158" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z158" s="76"/>
     </row>
     <row r="159" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="91" t="s">
@@ -19044,7 +18818,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q159" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R159" s="155">
         <v>0.13</v>
@@ -19065,9 +18839,7 @@
       <c r="Y159" s="94">
         <v>3</v>
       </c>
-      <c r="Z159" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z159" s="76"/>
     </row>
     <row r="160" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="91" t="s">
@@ -19122,7 +18894,7 @@
         <v>0.28160919540229884</v>
       </c>
       <c r="Q160" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R160" s="155">
         <v>0.13</v>
@@ -19145,9 +18917,7 @@
       <c r="Y160" s="94">
         <v>3</v>
       </c>
-      <c r="Z160" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z160" s="76"/>
     </row>
     <row r="161" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="91" t="s">
@@ -19202,7 +18972,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q161" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R161" s="155">
         <v>0.13</v>
@@ -19225,9 +18995,7 @@
       <c r="Y161" s="94">
         <v>3</v>
       </c>
-      <c r="Z161" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z161" s="76"/>
     </row>
     <row r="162" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="91" t="s">
@@ -19282,7 +19050,7 @@
         <v>0.29310344827586204</v>
       </c>
       <c r="Q162" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R162" s="155">
         <v>0.13</v>
@@ -19292,7 +19060,7 @@
         <v>-2.5542784165555332E-7</v>
       </c>
       <c r="T162" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U162" s="203">
         <v>44823</v>
@@ -19305,17 +19073,15 @@
       </c>
       <c r="X162" s="94"/>
       <c r="Y162" s="94"/>
-      <c r="Z162" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z162" s="76"/>
       <c r="AA162" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB162" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC162" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="163" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -19372,7 +19138,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q163" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R163" s="155">
         <v>0.13</v>
@@ -19382,7 +19148,7 @@
         <v>2.4326461106616293E-7</v>
       </c>
       <c r="T163" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U163" s="203">
         <v>44945</v>
@@ -19393,11 +19159,9 @@
       <c r="W163" s="94"/>
       <c r="X163" s="94"/>
       <c r="Y163" s="94"/>
-      <c r="Z163" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z163" s="76"/>
       <c r="AA163" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB163" s="42">
         <v>0</v>
@@ -19423,7 +19187,7 @@
         <v>12</v>
       </c>
       <c r="F164" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G164" s="111">
         <v>44958</v>
@@ -19460,7 +19224,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q164" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R164" s="155">
         <v>0.13</v>
@@ -19470,7 +19234,7 @@
         <v>9.5522753040810926E-8</v>
       </c>
       <c r="T164" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U164" s="203">
         <v>44945</v>
@@ -19481,9 +19245,7 @@
       <c r="W164" s="94"/>
       <c r="X164" s="94"/>
       <c r="Y164" s="94"/>
-      <c r="Z164" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z164" s="76"/>
       <c r="AA164" s="42" t="str">
         <f>IF(VLOOKUP($T164,'Havi béradatok'!$B:$E,2,FALSE)=F164,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19514,7 +19276,7 @@
         <v>12</v>
       </c>
       <c r="F165" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G165" s="111">
         <v>44986</v>
@@ -19551,7 +19313,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q165" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R165" s="155">
         <v>0.13</v>
@@ -19561,7 +19323,7 @@
         <v>-3.1421734347780728E-7</v>
       </c>
       <c r="T165" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U165" s="203">
         <v>44945</v>
@@ -19572,9 +19334,7 @@
       <c r="W165" s="94"/>
       <c r="X165" s="94"/>
       <c r="Y165" s="94"/>
-      <c r="Z165" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z165" s="76"/>
       <c r="AA165" s="42" t="str">
         <f>IF(VLOOKUP($T165,'Havi béradatok'!$B:$E,2,FALSE)=F165,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -19605,7 +19365,7 @@
         <v>12</v>
       </c>
       <c r="F166" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G166" s="111">
         <v>45017</v>
@@ -19614,7 +19374,7 @@
         <v>45046</v>
       </c>
       <c r="I166" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J166" s="92">
         <v>567000</v>
@@ -19642,7 +19402,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q166" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R166" s="155">
         <v>0.13</v>
@@ -19652,7 +19412,7 @@
         <v>2.4326461106616293E-7</v>
       </c>
       <c r="T166" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U166" s="203">
         <v>44945</v>
@@ -19682,7 +19442,7 @@
         <v>12</v>
       </c>
       <c r="F167" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G167" s="111">
         <v>45047</v>
@@ -19691,7 +19451,7 @@
         <v>45077</v>
       </c>
       <c r="I167" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J167" s="92">
         <v>567000</v>
@@ -19719,7 +19479,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q167" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R167" s="155">
         <v>0.13</v>
@@ -19729,7 +19489,7 @@
         <v>2.4326461106616293E-7</v>
       </c>
       <c r="T167" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U167" s="203">
         <v>44945</v>
@@ -19759,7 +19519,7 @@
         <v>12</v>
       </c>
       <c r="F168" s="95" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G168" s="111">
         <v>45078</v>
@@ -19768,7 +19528,7 @@
         <v>45107</v>
       </c>
       <c r="I168" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J168" s="92">
         <v>567000</v>
@@ -19796,7 +19556,7 @@
         <v>0.31609195402298851</v>
       </c>
       <c r="Q168" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R168" s="155">
         <v>0.13</v>
@@ -19806,7 +19566,7 @@
         <v>2.4326461106616293E-7</v>
       </c>
       <c r="T168" s="234" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="U168" s="203">
         <v>44945</v>
@@ -19872,7 +19632,7 @@
         <v>1</v>
       </c>
       <c r="Q169" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R169" s="155">
         <v>0.13</v>
@@ -19891,9 +19651,7 @@
       <c r="Y169" s="94">
         <v>3</v>
       </c>
-      <c r="Z169" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z169" s="76"/>
     </row>
     <row r="170" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="91" t="s">
@@ -19948,7 +19706,7 @@
         <v>1</v>
       </c>
       <c r="Q170" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R170" s="155">
         <v>0.13</v>
@@ -19967,9 +19725,7 @@
       <c r="Y170" s="94">
         <v>3</v>
       </c>
-      <c r="Z170" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z170" s="76"/>
     </row>
     <row r="171" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="91" t="s">
@@ -20025,7 +19781,7 @@
         <v>1</v>
       </c>
       <c r="Q171" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R171" s="155">
         <v>0.13</v>
@@ -20044,9 +19800,7 @@
       <c r="Y171" s="94">
         <v>3</v>
       </c>
-      <c r="Z171" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z171" s="76"/>
     </row>
     <row r="172" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="91" t="s">
@@ -20101,7 +19855,7 @@
         <v>1</v>
       </c>
       <c r="Q172" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R172" s="155">
         <v>0.13</v>
@@ -20120,9 +19874,7 @@
       <c r="Y172" s="94">
         <v>3</v>
       </c>
-      <c r="Z172" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z172" s="76"/>
     </row>
     <row r="173" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="91" t="s">
@@ -20178,7 +19930,7 @@
         <v>1</v>
       </c>
       <c r="Q173" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R173" s="155">
         <v>0.13</v>
@@ -20197,9 +19949,7 @@
       <c r="Y173" s="94">
         <v>3</v>
       </c>
-      <c r="Z173" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z173" s="76"/>
     </row>
     <row r="174" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="91" t="s">
@@ -20254,7 +20004,7 @@
         <v>1</v>
       </c>
       <c r="Q174" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R174" s="155">
         <v>0.13</v>
@@ -20264,7 +20014,7 @@
         <v>0</v>
       </c>
       <c r="T174" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U174" s="203"/>
       <c r="V174" s="94" t="s">
@@ -20273,17 +20023,15 @@
       <c r="W174" s="94"/>
       <c r="X174" s="94"/>
       <c r="Y174" s="94"/>
-      <c r="Z174" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z174" s="76"/>
       <c r="AA174" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB174" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC174" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="175" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20339,7 +20087,7 @@
         <v>1</v>
       </c>
       <c r="Q175" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R175" s="155">
         <v>0.13</v>
@@ -20349,7 +20097,7 @@
         <v>0</v>
       </c>
       <c r="T175" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U175" s="203"/>
       <c r="V175" s="94" t="s">
@@ -20358,17 +20106,15 @@
       <c r="W175" s="94"/>
       <c r="X175" s="94"/>
       <c r="Y175" s="94"/>
-      <c r="Z175" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z175" s="76"/>
       <c r="AA175" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB175" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC175" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -20424,7 +20170,7 @@
         <v>1</v>
       </c>
       <c r="Q176" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R176" s="155">
         <v>0.13</v>
@@ -20434,7 +20180,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T176" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U176" s="203"/>
       <c r="V176" s="94" t="s">
@@ -20443,11 +20189,9 @@
       <c r="W176" s="94"/>
       <c r="X176" s="94"/>
       <c r="Y176" s="94"/>
-      <c r="Z176" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z176" s="76"/>
       <c r="AA176" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB176" s="42">
         <v>0</v>
@@ -20473,7 +20217,7 @@
         <v>139</v>
       </c>
       <c r="F177" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G177" s="111">
         <v>44958</v>
@@ -20509,7 +20253,7 @@
         <v>1</v>
       </c>
       <c r="Q177" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R177" s="155">
         <v>0.13</v>
@@ -20519,7 +20263,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T177" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U177" s="203"/>
       <c r="V177" s="94" t="s">
@@ -20528,9 +20272,7 @@
       <c r="W177" s="94"/>
       <c r="X177" s="94"/>
       <c r="Y177" s="94"/>
-      <c r="Z177" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z177" s="76"/>
       <c r="AA177" s="42" t="str">
         <f>IF(VLOOKUP($T177,'Havi béradatok'!$B:$E,2,FALSE)=F177,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -20561,7 +20303,7 @@
         <v>139</v>
       </c>
       <c r="F178" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G178" s="111">
         <v>44986</v>
@@ -20597,7 +20339,7 @@
         <v>1</v>
       </c>
       <c r="Q178" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R178" s="155">
         <v>0.13</v>
@@ -20607,7 +20349,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T178" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U178" s="203"/>
       <c r="V178" s="94" t="s">
@@ -20616,9 +20358,7 @@
       <c r="W178" s="94"/>
       <c r="X178" s="94"/>
       <c r="Y178" s="94"/>
-      <c r="Z178" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z178" s="76"/>
       <c r="AA178" s="42" t="str">
         <f>IF(VLOOKUP($T178,'Havi béradatok'!$B:$E,2,FALSE)=F178,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -20649,7 +20389,7 @@
         <v>139</v>
       </c>
       <c r="F179" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G179" s="111">
         <v>45017</v>
@@ -20658,7 +20398,7 @@
         <v>45046</v>
       </c>
       <c r="I179" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J179" s="92">
         <v>508000</v>
@@ -20685,7 +20425,7 @@
         <v>1</v>
       </c>
       <c r="Q179" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R179" s="155">
         <v>0.13</v>
@@ -20695,7 +20435,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T179" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U179" s="203"/>
       <c r="V179" s="94" t="s">
@@ -20723,7 +20463,7 @@
         <v>139</v>
       </c>
       <c r="F180" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G180" s="111">
         <v>45047</v>
@@ -20732,7 +20472,7 @@
         <v>45077</v>
       </c>
       <c r="I180" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J180" s="92">
         <v>508000</v>
@@ -20759,7 +20499,7 @@
         <v>1</v>
       </c>
       <c r="Q180" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R180" s="155">
         <v>0.13</v>
@@ -20769,7 +20509,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T180" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U180" s="203"/>
       <c r="V180" s="94" t="s">
@@ -20797,7 +20537,7 @@
         <v>139</v>
       </c>
       <c r="F181" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G181" s="111">
         <v>45078</v>
@@ -20806,7 +20546,7 @@
         <v>45107</v>
       </c>
       <c r="I181" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J181" s="92">
         <v>508000</v>
@@ -20833,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="Q181" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R181" s="155">
         <v>0.13</v>
@@ -20843,7 +20583,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T181" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U181" s="203"/>
       <c r="V181" s="94" t="s">
@@ -20871,7 +20611,7 @@
         <v>139</v>
       </c>
       <c r="F182" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G182" s="111">
         <v>45108</v>
@@ -20880,7 +20620,7 @@
         <v>45138</v>
       </c>
       <c r="I182" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J182" s="92">
         <v>508000</v>
@@ -20907,7 +20647,7 @@
         <v>1</v>
       </c>
       <c r="Q182" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R182" s="155">
         <v>0.13</v>
@@ -20917,7 +20657,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T182" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U182" s="203"/>
       <c r="V182" s="94" t="s">
@@ -20945,7 +20685,7 @@
         <v>139</v>
       </c>
       <c r="F183" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G183" s="111">
         <v>45139</v>
@@ -20954,7 +20694,7 @@
         <v>45169</v>
       </c>
       <c r="I183" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J183" s="92">
         <v>508000</v>
@@ -20981,7 +20721,7 @@
         <v>1</v>
       </c>
       <c r="Q183" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R183" s="155">
         <v>0.13</v>
@@ -20991,7 +20731,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T183" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U183" s="203"/>
       <c r="V183" s="94" t="s">
@@ -21019,7 +20759,7 @@
         <v>139</v>
       </c>
       <c r="F184" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G184" s="111">
         <v>45170</v>
@@ -21028,7 +20768,7 @@
         <v>45199</v>
       </c>
       <c r="I184" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J184" s="92">
         <v>508000</v>
@@ -21055,7 +20795,7 @@
         <v>1</v>
       </c>
       <c r="Q184" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R184" s="155">
         <v>0.13</v>
@@ -21065,7 +20805,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T184" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U184" s="203"/>
       <c r="V184" s="94" t="s">
@@ -21093,7 +20833,7 @@
         <v>139</v>
       </c>
       <c r="F185" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G185" s="111">
         <v>45200</v>
@@ -21102,7 +20842,7 @@
         <v>45230</v>
       </c>
       <c r="I185" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J185" s="92">
         <v>508000</v>
@@ -21129,7 +20869,7 @@
         <v>1</v>
       </c>
       <c r="Q185" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R185" s="155">
         <v>0.13</v>
@@ -21139,7 +20879,7 @@
         <v>0.11417322834645671</v>
       </c>
       <c r="T185" s="234" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="U185" s="203"/>
       <c r="V185" s="94" t="s">
@@ -21203,7 +20943,7 @@
         <v>0.20689655172413793</v>
       </c>
       <c r="Q186" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R186" s="155">
         <v>0.13</v>
@@ -21224,9 +20964,7 @@
       <c r="Y186" s="94">
         <v>3</v>
       </c>
-      <c r="Z186" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z186" s="76"/>
     </row>
     <row r="187" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="91" t="s">
@@ -21281,7 +21019,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q187" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R187" s="94"/>
       <c r="S187" s="106">
@@ -21298,9 +21036,7 @@
       <c r="Y187" s="94">
         <v>3</v>
       </c>
-      <c r="Z187" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z187" s="76"/>
     </row>
     <row r="188" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="91" t="s">
@@ -21355,7 +21091,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q188" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R188" s="94"/>
       <c r="S188" s="106">
@@ -21372,9 +21108,7 @@
       <c r="Y188" s="94">
         <v>3</v>
       </c>
-      <c r="Z188" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z188" s="76"/>
     </row>
     <row r="189" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="91" t="s">
@@ -21429,7 +21163,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q189" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R189" s="94"/>
       <c r="S189" s="106">
@@ -21446,9 +21180,7 @@
       <c r="Y189" s="94">
         <v>3</v>
       </c>
-      <c r="Z189" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z189" s="76"/>
     </row>
     <row r="190" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="91" t="s">
@@ -21503,7 +21235,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q190" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R190" s="94"/>
       <c r="S190" s="106">
@@ -21520,9 +21252,7 @@
       <c r="Y190" s="94">
         <v>3</v>
       </c>
-      <c r="Z190" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z190" s="76"/>
     </row>
     <row r="191" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="91" t="s">
@@ -21577,7 +21307,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q191" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R191" s="155">
         <v>0.13</v>
@@ -21596,9 +21326,7 @@
       <c r="Y191" s="94">
         <v>3</v>
       </c>
-      <c r="Z191" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z191" s="76"/>
     </row>
     <row r="192" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="91" t="s">
@@ -21653,7 +21381,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q192" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R192" s="155">
         <v>0.13</v>
@@ -21672,9 +21400,7 @@
       <c r="Y192" s="94">
         <v>3</v>
       </c>
-      <c r="Z192" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z192" s="76"/>
     </row>
     <row r="193" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="91" t="s">
@@ -21729,7 +21455,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q193" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R193" s="155">
         <v>0.13</v>
@@ -21748,9 +21474,7 @@
       <c r="Y193" s="94">
         <v>3</v>
       </c>
-      <c r="Z193" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z193" s="76"/>
     </row>
     <row r="194" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="91" t="s">
@@ -21805,7 +21529,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q194" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R194" s="155">
         <v>0.13</v>
@@ -21824,9 +21548,7 @@
       <c r="Y194" s="94">
         <v>3</v>
       </c>
-      <c r="Z194" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z194" s="76"/>
     </row>
     <row r="195" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="91" t="s">
@@ -21881,7 +21603,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q195" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R195" s="155">
         <v>0.13</v>
@@ -21900,9 +21622,7 @@
       <c r="Y195" s="94">
         <v>3</v>
       </c>
-      <c r="Z195" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z195" s="76"/>
     </row>
     <row r="196" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="91" t="s">
@@ -21957,7 +21677,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q196" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R196" s="155">
         <v>0.13</v>
@@ -21976,9 +21696,7 @@
       <c r="Y196" s="94">
         <v>3</v>
       </c>
-      <c r="Z196" s="76">
-        <v>1</v>
-      </c>
+      <c r="Z196" s="76"/>
     </row>
     <row r="197" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="91" t="s">
@@ -22033,7 +21751,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q197" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R197" s="155">
         <v>0.13</v>
@@ -22052,9 +21770,7 @@
       <c r="Y197" s="94">
         <v>3</v>
       </c>
-      <c r="Z197" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z197" s="76"/>
     </row>
     <row r="198" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="91" t="s">
@@ -22109,7 +21825,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q198" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R198" s="155">
         <v>0.13</v>
@@ -22128,9 +21844,7 @@
       <c r="Y198" s="94">
         <v>3</v>
       </c>
-      <c r="Z198" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z198" s="76"/>
     </row>
     <row r="199" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="91" t="s">
@@ -22185,7 +21899,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q199" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R199" s="155">
         <v>0.13</v>
@@ -22204,9 +21918,7 @@
       <c r="Y199" s="94">
         <v>3</v>
       </c>
-      <c r="Z199" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z199" s="76"/>
     </row>
     <row r="200" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="91" t="s">
@@ -22261,7 +21973,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q200" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R200" s="155">
         <v>0.13</v>
@@ -22280,9 +21992,7 @@
       <c r="Y200" s="94">
         <v>3</v>
       </c>
-      <c r="Z200" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z200" s="76"/>
     </row>
     <row r="201" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="91" t="s">
@@ -22337,7 +22047,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q201" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R201" s="155">
         <v>0.13</v>
@@ -22356,9 +22066,7 @@
       <c r="Y201" s="94">
         <v>3</v>
       </c>
-      <c r="Z201" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z201" s="76"/>
     </row>
     <row r="202" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="91" t="s">
@@ -22413,7 +22121,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q202" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R202" s="155">
         <v>0.13</v>
@@ -22432,9 +22140,7 @@
       <c r="Y202" s="94">
         <v>3</v>
       </c>
-      <c r="Z202" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z202" s="76"/>
     </row>
     <row r="203" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="91" t="s">
@@ -22489,7 +22195,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q203" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R203" s="155">
         <v>0.13</v>
@@ -22508,9 +22214,7 @@
       <c r="Y203" s="94">
         <v>3</v>
       </c>
-      <c r="Z203" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z203" s="76"/>
     </row>
     <row r="204" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="91" t="s">
@@ -22565,7 +22269,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q204" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R204" s="155">
         <v>0.13</v>
@@ -22584,9 +22288,7 @@
       <c r="Y204" s="94">
         <v>3</v>
       </c>
-      <c r="Z204" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z204" s="76"/>
     </row>
     <row r="205" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="91" t="s">
@@ -22641,7 +22343,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q205" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R205" s="155">
         <v>0.13</v>
@@ -22660,9 +22362,7 @@
       <c r="Y205" s="94">
         <v>3</v>
       </c>
-      <c r="Z205" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z205" s="76"/>
     </row>
     <row r="206" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="91" t="s">
@@ -22717,7 +22417,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q206" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R206" s="155">
         <v>0.13</v>
@@ -22736,9 +22436,7 @@
       <c r="Y206" s="94">
         <v>3</v>
       </c>
-      <c r="Z206" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z206" s="76"/>
     </row>
     <row r="207" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="91" t="s">
@@ -22793,7 +22491,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q207" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R207" s="155">
         <v>0.13</v>
@@ -22812,9 +22510,7 @@
       <c r="Y207" s="94">
         <v>3</v>
       </c>
-      <c r="Z207" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z207" s="76"/>
     </row>
     <row r="208" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="91" t="s">
@@ -22869,7 +22565,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q208" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R208" s="155">
         <v>0.13</v>
@@ -22888,9 +22584,7 @@
       <c r="Y208" s="94">
         <v>3</v>
       </c>
-      <c r="Z208" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z208" s="76"/>
     </row>
     <row r="209" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="91" t="s">
@@ -22945,7 +22639,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q209" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R209" s="155">
         <v>0.13</v>
@@ -22964,9 +22658,7 @@
       <c r="Y209" s="94">
         <v>3</v>
       </c>
-      <c r="Z209" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z209" s="76"/>
     </row>
     <row r="210" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="91" t="s">
@@ -23021,7 +22713,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q210" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R210" s="155">
         <v>0.13</v>
@@ -23040,9 +22732,7 @@
       <c r="Y210" s="94">
         <v>3</v>
       </c>
-      <c r="Z210" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z210" s="76"/>
     </row>
     <row r="211" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="91" t="s">
@@ -23097,7 +22787,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q211" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R211" s="155">
         <v>0.13</v>
@@ -23107,7 +22797,7 @@
         <v>-2.9885057467593512E-7</v>
       </c>
       <c r="T211" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U211" s="203">
         <v>44838</v>
@@ -23118,17 +22808,15 @@
       <c r="W211" s="94"/>
       <c r="X211" s="94"/>
       <c r="Y211" s="94"/>
-      <c r="Z211" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z211" s="76"/>
       <c r="AA211" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB211" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC211" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="212" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23184,7 +22872,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q212" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R212" s="155">
         <v>0.13</v>
@@ -23194,7 +22882,7 @@
         <v>2.9885057473144627E-7</v>
       </c>
       <c r="T212" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U212" s="203">
         <v>44838</v>
@@ -23205,17 +22893,15 @@
       <c r="W212" s="94"/>
       <c r="X212" s="94"/>
       <c r="Y212" s="94"/>
-      <c r="Z212" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z212" s="76"/>
       <c r="AA212" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB212" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC212" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="213" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23271,7 +22957,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q213" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R213" s="155">
         <v>0.13</v>
@@ -23281,7 +22967,7 @@
         <v>-2.9885057467593512E-7</v>
       </c>
       <c r="T213" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U213" s="203">
         <v>44838</v>
@@ -23292,17 +22978,15 @@
       <c r="W213" s="94"/>
       <c r="X213" s="94"/>
       <c r="Y213" s="94"/>
-      <c r="Z213" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z213" s="76"/>
       <c r="AA213" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB213" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC213" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="214" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23358,7 +23042,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q214" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R214" s="155">
         <v>0.13</v>
@@ -23368,7 +23052,7 @@
         <v>2.9885057473144627E-7</v>
       </c>
       <c r="T214" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U214" s="203">
         <v>44838</v>
@@ -23379,17 +23063,15 @@
       <c r="W214" s="94"/>
       <c r="X214" s="94"/>
       <c r="Y214" s="94"/>
-      <c r="Z214" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z214" s="76"/>
       <c r="AA214" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB214" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AC214" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="215" spans="1:29" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -23445,7 +23127,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q215" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R215" s="155">
         <v>0.13</v>
@@ -23455,7 +23137,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T215" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U215" s="203">
         <v>44949</v>
@@ -23466,11 +23148,9 @@
       <c r="W215" s="94"/>
       <c r="X215" s="94"/>
       <c r="Y215" s="94"/>
-      <c r="Z215" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z215" s="76"/>
       <c r="AA215" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB215" s="42">
         <v>0</v>
@@ -23532,7 +23212,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q216" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R216" s="155">
         <v>0.13</v>
@@ -23542,7 +23222,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T216" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U216" s="203">
         <v>44949</v>
@@ -23553,11 +23233,9 @@
       <c r="W216" s="94"/>
       <c r="X216" s="94"/>
       <c r="Y216" s="94"/>
-      <c r="Z216" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z216" s="76"/>
       <c r="AA216" s="42" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AB216" s="42">
         <v>0</v>
@@ -23583,7 +23261,7 @@
         <v>139</v>
       </c>
       <c r="F217" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G217" s="111">
         <v>44958</v>
@@ -23620,7 +23298,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q217" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R217" s="155">
         <v>0.13</v>
@@ -23630,7 +23308,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T217" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U217" s="203">
         <v>44949</v>
@@ -23641,9 +23319,7 @@
       <c r="W217" s="94"/>
       <c r="X217" s="94"/>
       <c r="Y217" s="94"/>
-      <c r="Z217" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z217" s="76"/>
       <c r="AA217" s="42" t="str">
         <f>IF(VLOOKUP($T217,'Havi béradatok'!$B:$E,2,FALSE)=F217,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23674,7 +23350,7 @@
         <v>139</v>
       </c>
       <c r="F218" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G218" s="111">
         <v>44958</v>
@@ -23711,7 +23387,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q218" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R218" s="155">
         <v>0.13</v>
@@ -23721,7 +23397,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T218" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U218" s="203">
         <v>44949</v>
@@ -23732,9 +23408,7 @@
       <c r="W218" s="94"/>
       <c r="X218" s="94"/>
       <c r="Y218" s="94"/>
-      <c r="Z218" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z218" s="76"/>
       <c r="AA218" s="42" t="str">
         <f>IF(VLOOKUP($T218,'Havi béradatok'!$B:$E,2,FALSE)=F218,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23765,7 +23439,7 @@
         <v>139</v>
       </c>
       <c r="F219" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G219" s="111">
         <v>44986</v>
@@ -23801,7 +23475,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q219" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R219" s="155">
         <v>0.13</v>
@@ -23811,7 +23485,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T219" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U219" s="203">
         <v>44949</v>
@@ -23822,9 +23496,7 @@
       <c r="W219" s="94"/>
       <c r="X219" s="94"/>
       <c r="Y219" s="94"/>
-      <c r="Z219" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z219" s="76"/>
       <c r="AA219" s="42" t="str">
         <f>IF(VLOOKUP($T219,'Havi béradatok'!$B:$E,2,FALSE)=F219,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23855,7 +23527,7 @@
         <v>139</v>
       </c>
       <c r="F220" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G220" s="111">
         <v>44986</v>
@@ -23891,7 +23563,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q220" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R220" s="155">
         <v>0.13</v>
@@ -23901,7 +23573,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T220" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U220" s="203">
         <v>44949</v>
@@ -23912,9 +23584,7 @@
       <c r="W220" s="94"/>
       <c r="X220" s="94"/>
       <c r="Y220" s="94"/>
-      <c r="Z220" s="76">
-        <v>2</v>
-      </c>
+      <c r="Z220" s="76"/>
       <c r="AA220" s="42" t="str">
         <f>IF(VLOOKUP($T220,'Havi béradatok'!$B:$E,2,FALSE)=F220,"EGYEZIK","HIBÁS")</f>
         <v>EGYEZIK</v>
@@ -23945,7 +23615,7 @@
         <v>139</v>
       </c>
       <c r="F221" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G221" s="111">
         <v>45017</v>
@@ -23954,7 +23624,7 @@
         <v>45046</v>
       </c>
       <c r="I221" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J221" s="92">
         <v>1030000</v>
@@ -23981,7 +23651,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q221" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R221" s="155">
         <v>0.13</v>
@@ -23991,7 +23661,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T221" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U221" s="203">
         <v>44949</v>
@@ -24021,7 +23691,7 @@
         <v>139</v>
       </c>
       <c r="F222" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G222" s="111">
         <v>45017</v>
@@ -24030,7 +23700,7 @@
         <v>45046</v>
       </c>
       <c r="I222" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J222" s="92">
         <v>1030000</v>
@@ -24057,7 +23727,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q222" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R222" s="155">
         <v>0.13</v>
@@ -24067,7 +23737,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T222" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U222" s="203">
         <v>44949</v>
@@ -24097,7 +23767,7 @@
         <v>139</v>
       </c>
       <c r="F223" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G223" s="111">
         <v>45047</v>
@@ -24106,7 +23776,7 @@
         <v>45077</v>
       </c>
       <c r="I223" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J223" s="92">
         <v>1030000</v>
@@ -24133,7 +23803,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q223" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R223" s="155">
         <v>0.13</v>
@@ -24143,7 +23813,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T223" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U223" s="203">
         <v>45030</v>
@@ -24173,7 +23843,7 @@
         <v>139</v>
       </c>
       <c r="F224" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G224" s="111">
         <v>45047</v>
@@ -24182,7 +23852,7 @@
         <v>45077</v>
       </c>
       <c r="I224" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J224" s="92">
         <v>1030000</v>
@@ -24209,7 +23879,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q224" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R224" s="155">
         <v>0.13</v>
@@ -24219,7 +23889,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T224" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U224" s="203">
         <v>45030</v>
@@ -24232,7 +23902,7 @@
       <c r="Y224" s="94"/>
       <c r="Z224" s="76"/>
     </row>
-    <row r="225" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="91" t="s">
         <v>137</v>
       </c>
@@ -24249,7 +23919,7 @@
         <v>139</v>
       </c>
       <c r="F225" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G225" s="111">
         <v>45078</v>
@@ -24258,7 +23928,7 @@
         <v>45107</v>
       </c>
       <c r="I225" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J225" s="92">
         <v>1030000</v>
@@ -24285,7 +23955,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q225" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R225" s="155">
         <v>0.13</v>
@@ -24295,7 +23965,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T225" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U225" s="203">
         <v>45030</v>
@@ -24308,7 +23978,7 @@
       <c r="Y225" s="94"/>
       <c r="Z225" s="76"/>
     </row>
-    <row r="226" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="91" t="s">
         <v>137</v>
       </c>
@@ -24325,7 +23995,7 @@
         <v>139</v>
       </c>
       <c r="F226" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G226" s="111">
         <v>45078</v>
@@ -24334,7 +24004,7 @@
         <v>45107</v>
       </c>
       <c r="I226" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J226" s="92">
         <v>1030000</v>
@@ -24361,7 +24031,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q226" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R226" s="155">
         <v>0.13</v>
@@ -24371,7 +24041,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T226" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U226" s="203">
         <v>45030</v>
@@ -24384,7 +24054,7 @@
       <c r="Y226" s="94"/>
       <c r="Z226" s="76"/>
     </row>
-    <row r="227" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="91" t="s">
         <v>137</v>
       </c>
@@ -24401,7 +24071,7 @@
         <v>139</v>
       </c>
       <c r="F227" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G227" s="111">
         <v>45108</v>
@@ -24410,7 +24080,7 @@
         <v>45138</v>
       </c>
       <c r="I227" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J227" s="92">
         <v>1030000</v>
@@ -24437,7 +24107,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q227" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R227" s="155">
         <v>0.13</v>
@@ -24447,7 +24117,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T227" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U227" s="203">
         <v>45030</v>
@@ -24460,7 +24130,7 @@
       <c r="Y227" s="94"/>
       <c r="Z227" s="76"/>
     </row>
-    <row r="228" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="91" t="s">
         <v>137</v>
       </c>
@@ -24477,7 +24147,7 @@
         <v>139</v>
       </c>
       <c r="F228" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G228" s="111">
         <v>45108</v>
@@ -24486,7 +24156,7 @@
         <v>45138</v>
       </c>
       <c r="I228" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J228" s="92">
         <v>1030000</v>
@@ -24513,7 +24183,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q228" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R228" s="155">
         <v>0.13</v>
@@ -24523,7 +24193,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T228" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U228" s="203">
         <v>45030</v>
@@ -24536,7 +24206,7 @@
       <c r="Y228" s="94"/>
       <c r="Z228" s="76"/>
     </row>
-    <row r="229" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="91" t="s">
         <v>137</v>
       </c>
@@ -24553,7 +24223,7 @@
         <v>139</v>
       </c>
       <c r="F229" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G229" s="111">
         <v>45139</v>
@@ -24562,7 +24232,7 @@
         <v>45169</v>
       </c>
       <c r="I229" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J229" s="92">
         <v>1030000</v>
@@ -24589,7 +24259,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q229" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R229" s="155">
         <v>0.13</v>
@@ -24599,7 +24269,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T229" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U229" s="203">
         <v>45030</v>
@@ -24612,7 +24282,7 @@
       <c r="Y229" s="94"/>
       <c r="Z229" s="76"/>
     </row>
-    <row r="230" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="91" t="s">
         <v>137</v>
       </c>
@@ -24629,7 +24299,7 @@
         <v>139</v>
       </c>
       <c r="F230" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G230" s="111">
         <v>45139</v>
@@ -24638,7 +24308,7 @@
         <v>45169</v>
       </c>
       <c r="I230" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J230" s="92">
         <v>1030000</v>
@@ -24665,7 +24335,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q230" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R230" s="155">
         <v>0.13</v>
@@ -24675,7 +24345,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T230" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U230" s="203">
         <v>45030</v>
@@ -24688,7 +24358,7 @@
       <c r="Y230" s="94"/>
       <c r="Z230" s="76"/>
     </row>
-    <row r="231" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="91" t="s">
         <v>137</v>
       </c>
@@ -24705,7 +24375,7 @@
         <v>139</v>
       </c>
       <c r="F231" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G231" s="111">
         <v>45170</v>
@@ -24714,7 +24384,7 @@
         <v>45199</v>
       </c>
       <c r="I231" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J231" s="92">
         <v>1030000</v>
@@ -24741,7 +24411,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q231" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R231" s="155">
         <v>0.13</v>
@@ -24751,7 +24421,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T231" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U231" s="203">
         <v>45030</v>
@@ -24764,7 +24434,7 @@
       <c r="Y231" s="94"/>
       <c r="Z231" s="76"/>
     </row>
-    <row r="232" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="91" t="s">
         <v>137</v>
       </c>
@@ -24781,7 +24451,7 @@
         <v>139</v>
       </c>
       <c r="F232" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G232" s="111">
         <v>45170</v>
@@ -24790,7 +24460,7 @@
         <v>45199</v>
       </c>
       <c r="I232" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J232" s="92">
         <v>1030000</v>
@@ -24817,7 +24487,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q232" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R232" s="155">
         <v>0.13</v>
@@ -24827,7 +24497,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T232" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U232" s="203">
         <v>45030</v>
@@ -24840,7 +24510,7 @@
       <c r="Y232" s="94"/>
       <c r="Z232" s="76"/>
     </row>
-    <row r="233" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="91" t="s">
         <v>137</v>
       </c>
@@ -24857,7 +24527,7 @@
         <v>139</v>
       </c>
       <c r="F233" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G233" s="111">
         <v>45200</v>
@@ -24866,7 +24536,7 @@
         <v>45230</v>
       </c>
       <c r="I233" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J233" s="92">
         <v>1030000</v>
@@ -24893,7 +24563,7 @@
         <v>0.3045977011494253</v>
       </c>
       <c r="Q233" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R233" s="155">
         <v>0.13</v>
@@ -24903,7 +24573,7 @@
         <v>-3.5710300189117916E-7</v>
       </c>
       <c r="T233" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U233" s="203">
         <v>45030</v>
@@ -24916,7 +24586,7 @@
       <c r="Y233" s="94"/>
       <c r="Z233" s="76"/>
     </row>
-    <row r="234" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="91" t="s">
         <v>137</v>
       </c>
@@ -24933,7 +24603,7 @@
         <v>139</v>
       </c>
       <c r="F234" s="95" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G234" s="111">
         <v>45200</v>
@@ -24942,7 +24612,7 @@
         <v>45230</v>
       </c>
       <c r="I234" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J234" s="92">
         <v>1030000</v>
@@ -24969,7 +24639,7 @@
         <v>0.6954022988505747</v>
       </c>
       <c r="Q234" s="112" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="R234" s="155">
         <v>0.13</v>
@@ -24979,7 +24649,7 @@
         <v>3.5710300183566801E-7</v>
       </c>
       <c r="T234" s="234" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="U234" s="203">
         <v>45030</v>
@@ -24992,7 +24662,7 @@
       <c r="Y234" s="94"/>
       <c r="Z234" s="76"/>
     </row>
-    <row r="235" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="91"/>
       <c r="B235" s="91"/>
       <c r="C235" s="91"/>
@@ -25020,9 +24690,9 @@
       <c r="Y235" s="94"/>
       <c r="Z235" s="76"/>
     </row>
-    <row r="236" spans="1:30" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:26" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="153" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B236" s="145"/>
       <c r="C236" s="145"/>
@@ -25050,7 +24720,7 @@
       <c r="Y236" s="149"/>
       <c r="Z236" s="76"/>
     </row>
-    <row r="237" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="97"/>
       <c r="B237" s="97"/>
       <c r="C237" s="97"/>
@@ -25078,9 +24748,9 @@
       <c r="Y237" s="100"/>
       <c r="Z237" s="78"/>
     </row>
-    <row r="238" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="97" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B238" s="97" t="s">
         <v>173</v>
@@ -25114,10 +24784,10 @@
         <v>37440</v>
       </c>
       <c r="L238" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M238" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N238" s="214">
         <v>320000</v>
@@ -25128,7 +24798,7 @@
       </c>
       <c r="P238" s="93"/>
       <c r="Q238" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R238" s="155">
         <v>0.13</v>
@@ -25144,14 +24814,13 @@
       <c r="W238" s="100"/>
       <c r="X238" s="100"/>
       <c r="Y238" s="100"/>
-      <c r="Z238" s="78"/>
-      <c r="AD238" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="239" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z238" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="239" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B239" s="97" t="s">
         <v>173</v>
@@ -25185,10 +24854,10 @@
         <v>29250</v>
       </c>
       <c r="L239" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M239" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N239" s="214">
         <v>250000</v>
@@ -25199,7 +24868,7 @@
       </c>
       <c r="P239" s="93"/>
       <c r="Q239" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R239" s="155">
         <v>0.13</v>
@@ -25215,14 +24884,13 @@
       <c r="Y239" s="94">
         <v>3</v>
       </c>
-      <c r="Z239" s="78"/>
-      <c r="AD239" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="240" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z239" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="240" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B240" s="97" t="s">
         <v>173</v>
@@ -25242,7 +24910,7 @@
       <c r="G240" s="111"/>
       <c r="H240" s="111"/>
       <c r="I240" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J240" s="98">
         <v>90000</v>
@@ -25252,10 +24920,10 @@
         <v>10530</v>
       </c>
       <c r="L240" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M240" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N240" s="214">
         <v>90000</v>
@@ -25266,7 +24934,7 @@
       </c>
       <c r="P240" s="93"/>
       <c r="Q240" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R240" s="155">
         <v>0.13</v>
@@ -25280,14 +24948,13 @@
       <c r="W240" s="100"/>
       <c r="X240" s="100"/>
       <c r="Y240" s="94"/>
-      <c r="Z240" s="78"/>
-      <c r="AD240" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="241" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z240" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="241" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="97" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B241" s="97" t="s">
         <v>162</v>
@@ -25311,7 +24978,7 @@
         <v>45060</v>
       </c>
       <c r="I241" s="94" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="J241" s="98">
         <v>450000</v>
@@ -25321,10 +24988,10 @@
         <v>52650</v>
       </c>
       <c r="L241" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M241" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N241" s="214">
         <v>450000</v>
@@ -25335,7 +25002,7 @@
       </c>
       <c r="P241" s="93"/>
       <c r="Q241" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R241" s="155">
         <v>0.13</v>
@@ -25351,14 +25018,13 @@
       <c r="W241" s="100"/>
       <c r="X241" s="100"/>
       <c r="Y241" s="94"/>
-      <c r="Z241" s="78"/>
-      <c r="AD241" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="242" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z241" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="242" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="97" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B242" s="97" t="s">
         <v>173</v>
@@ -25392,10 +25058,10 @@
         <v>23400</v>
       </c>
       <c r="L242" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="M242" s="97" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="N242" s="214">
         <v>200000</v>
@@ -25406,7 +25072,7 @@
       </c>
       <c r="P242" s="93"/>
       <c r="Q242" s="99" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="R242" s="155">
         <v>0.13</v>
@@ -25420,12 +25086,11 @@
       <c r="Y242" s="94">
         <v>3</v>
       </c>
-      <c r="Z242" s="78"/>
-      <c r="AD242" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="243" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="Z242" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="243" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="97"/>
       <c r="B243" s="97"/>
       <c r="C243" s="97"/>
@@ -25453,7 +25118,7 @@
       <c r="Y243" s="100"/>
       <c r="Z243" s="78"/>
     </row>
-    <row r="244" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="97"/>
       <c r="B244" s="97"/>
       <c r="C244" s="97"/>
@@ -25481,7 +25146,7 @@
       <c r="Y244" s="100"/>
       <c r="Z244" s="78"/>
     </row>
-    <row r="245" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="97"/>
       <c r="B245" s="97"/>
       <c r="C245" s="97"/>
@@ -25509,7 +25174,7 @@
       <c r="Y245" s="100"/>
       <c r="Z245" s="78"/>
     </row>
-    <row r="246" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="97"/>
       <c r="B246" s="97"/>
       <c r="C246" s="97"/>
@@ -25537,7 +25202,7 @@
       <c r="Y246" s="100"/>
       <c r="Z246" s="78"/>
     </row>
-    <row r="247" spans="1:30" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:26" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="97"/>
       <c r="B247" s="97"/>
       <c r="C247" s="97"/>
@@ -25565,7 +25230,7 @@
       <c r="Y247" s="100"/>
       <c r="Z247" s="78"/>
     </row>
-    <row r="248" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A248" s="97"/>
       <c r="B248" s="97"/>
       <c r="C248" s="97"/>
@@ -25592,7 +25257,7 @@
       <c r="X248" s="102"/>
       <c r="Y248" s="100"/>
     </row>
-    <row r="249" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A249" s="107"/>
       <c r="B249" s="107"/>
       <c r="C249" s="107"/>
@@ -25619,9 +25284,9 @@
       <c r="X249" s="109"/>
       <c r="Y249" s="154"/>
     </row>
-    <row r="250" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A250" s="128" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B250" s="97"/>
       <c r="C250" s="97"/>
@@ -25654,13 +25319,13 @@
       <c r="X250" s="102"/>
       <c r="Y250" s="100"/>
     </row>
-    <row r="251" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N251" s="227"/>
       <c r="O251" s="228"/>
     </row>
-    <row r="252" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:26" x14ac:dyDescent="0.25">
       <c r="M252" s="110" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="N252" s="229">
         <f>SUM(N250:O250)</f>
@@ -25668,13 +25333,13 @@
       </c>
       <c r="O252" s="228"/>
     </row>
-    <row r="254" spans="1:30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:26" x14ac:dyDescent="0.25">
       <c r="N254" s="143">
         <f>SUM(Költségvetés!F20:G53)</f>
         <v>79317492</v>
       </c>
       <c r="O254" s="144" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="P254" s="204"/>
       <c r="Q254" s="187"/>
@@ -25685,29 +25350,29 @@
   </sheetData>
   <autoFilter ref="A3:AC236" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}" scale="79" showAutoFilter="1">
-      <selection sqref="A1:XFD1"/>
+    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}" scale="79" filter="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="D1">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1:K1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
-      <autoFilter ref="A1:AN46" xr:uid="{D0CD53FD-ACDA-41CA-B49A-C3BF8E97736C}"/>
+      <autoFilter ref="A1:AN46" xr:uid="{C72AC665-9475-4B0F-9387-4C9BCD870B58}">
+        <filterColumn colId="11">
+          <filters>
+            <dateGroupItem year="2020" month="3" dateTimeGrouping="month"/>
+          </filters>
+        </filterColumn>
+      </autoFilter>
     </customSheetView>
     <customSheetView guid="{512FD11E-1805-40CF-9281-A97D99C73B97}" scale="79" topLeftCell="B1">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}" scale="79" filter="1" showAutoFilter="1" hiddenColumns="1" topLeftCell="D1">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1:K1048576"/>
+    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}" scale="79" showAutoFilter="1">
+      <selection sqref="A1:XFD1"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
       <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId2"/>
-      <autoFilter ref="A1:AN46" xr:uid="{DB6B3747-3F7F-449A-A94F-D197EE719980}">
-        <filterColumn colId="11">
-          <filters>
-            <dateGroupItem year="2020" month="3" dateTimeGrouping="month"/>
-          </filters>
-        </filterColumn>
-      </autoFilter>
+      <autoFilter ref="A1:AN46" xr:uid="{67153AE2-FC7D-4F78-AF0A-929A2184D8EC}"/>
     </customSheetView>
   </customSheetViews>
   <conditionalFormatting sqref="N2">
@@ -26166,13 +25831,13 @@
         <v>234</v>
       </c>
       <c r="E2" s="159" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F2" s="159" t="s">
+        <v>277</v>
+      </c>
+      <c r="G2" s="161" t="s">
         <v>278</v>
-      </c>
-      <c r="G2" s="161" t="s">
-        <v>279</v>
       </c>
       <c r="H2" s="159" t="s">
         <v>257</v>
@@ -26259,7 +25924,7 @@
         <v>157</v>
       </c>
       <c r="D5" s="165" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="E5" s="4" t="s">
         <v>126</v>
@@ -26291,13 +25956,13 @@
         <v>157</v>
       </c>
       <c r="D6" s="165" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E6" s="4" t="s">
         <v>126</v>
       </c>
       <c r="F6" s="42" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G6" s="198">
         <v>889000</v>
@@ -26323,7 +25988,7 @@
         <v>157</v>
       </c>
       <c r="D7" s="165" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="E7" s="4" t="s">
         <v>126</v>
@@ -26341,7 +26006,7 @@
         <v>139</v>
       </c>
       <c r="J7" s="170" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26385,10 +26050,10 @@
         <v>156</v>
       </c>
       <c r="D9" s="165" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="F9" s="42" t="s">
         <v>136</v>
@@ -26417,7 +26082,7 @@
         <v>159</v>
       </c>
       <c r="D10" s="165" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>133</v>
@@ -26447,7 +26112,7 @@
         <v>159</v>
       </c>
       <c r="D11" s="165" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>133</v>
@@ -26477,7 +26142,7 @@
         <v>159</v>
       </c>
       <c r="D12" s="165" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>133</v>
@@ -26507,7 +26172,7 @@
         <v>159</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>133</v>
@@ -26537,7 +26202,7 @@
         <v>157</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>126</v>
@@ -26555,7 +26220,7 @@
         <v>12</v>
       </c>
       <c r="J14" s="170" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -26621,25 +26286,25 @@
     <row r="17" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="163"/>
       <c r="B17" s="42" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C17" s="42" t="s">
         <v>159</v>
       </c>
       <c r="D17" s="165" t="s">
+        <v>297</v>
+      </c>
+      <c r="E17" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="E17" s="42" t="s">
+      <c r="F17" s="42" t="s">
         <v>299</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>300</v>
       </c>
       <c r="G17" s="198">
         <v>444500</v>
       </c>
       <c r="H17" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I17" s="181" t="s">
         <v>139</v>
@@ -26663,7 +26328,7 @@
         <v>133</v>
       </c>
       <c r="F18" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G18" s="198">
         <v>41370</v>
@@ -26693,7 +26358,7 @@
         <v>133</v>
       </c>
       <c r="F19" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G19" s="198">
         <v>67062</v>
@@ -26723,7 +26388,7 @@
         <v>133</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G20" s="198">
         <v>18890</v>
@@ -26750,10 +26415,10 @@
         <v>5100007144</v>
       </c>
       <c r="E21" s="42" t="s">
+        <v>310</v>
+      </c>
+      <c r="F21" s="42" t="s">
         <v>311</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>312</v>
       </c>
       <c r="G21" s="198">
         <v>101600</v>
@@ -26780,10 +26445,10 @@
         <v>5100007834</v>
       </c>
       <c r="E22" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F22" s="42" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G22" s="198">
         <v>708609</v>
@@ -26810,10 +26475,10 @@
         <v>5100007834</v>
       </c>
       <c r="E23" s="42" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="F23" s="42" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="G23" s="198">
         <v>60796</v>
@@ -26840,10 +26505,10 @@
         <v>5100007968</v>
       </c>
       <c r="E24" s="42" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" s="42" t="s">
         <v>314</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>315</v>
       </c>
       <c r="G24" s="198">
         <v>35827</v>
@@ -26866,17 +26531,17 @@
       </c>
       <c r="D25" s="165"/>
       <c r="E25" s="42" t="s">
+        <v>316</v>
+      </c>
+      <c r="F25" s="42" t="s">
         <v>317</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>318</v>
       </c>
       <c r="G25" s="199">
         <f>1010508-126312</f>
         <v>884196</v>
       </c>
       <c r="H25" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I25" s="181" t="s">
         <v>139</v>
@@ -26893,17 +26558,17 @@
       </c>
       <c r="D26" s="165"/>
       <c r="E26" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F26" s="42" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="G26" s="199">
         <f>666672-83333</f>
         <v>583339</v>
       </c>
       <c r="H26" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I26" s="181" t="s">
         <v>139</v>
@@ -26924,10 +26589,10 @@
         <v>5100006586</v>
       </c>
       <c r="E27" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F27" s="42" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="G27" s="199">
         <v>136416</v>
@@ -26954,10 +26619,10 @@
         <v>5100007670</v>
       </c>
       <c r="E28" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F28" s="42" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G28" s="199">
         <v>95998</v>
@@ -26984,10 +26649,10 @@
         <v>5100005908</v>
       </c>
       <c r="E29" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F29" s="42" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G29" s="199">
         <v>20210</v>
@@ -27014,10 +26679,10 @@
         <v>5100006586</v>
       </c>
       <c r="E30" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F30" s="42" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="G30" s="199">
         <v>89998</v>
@@ -27044,10 +26709,10 @@
         <v>5100007670</v>
       </c>
       <c r="E31" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F31" s="42" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="G31" s="199">
         <v>63334</v>
@@ -27074,10 +26739,10 @@
         <v>5100005908</v>
       </c>
       <c r="E32" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F32" s="42" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="G32" s="199">
         <v>13334</v>
@@ -27104,10 +26769,10 @@
         <v>5100006586</v>
       </c>
       <c r="E33" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F33" s="42" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="G33" s="199">
         <v>545664</v>
@@ -27134,10 +26799,10 @@
         <v>5100007670</v>
       </c>
       <c r="E34" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F34" s="42" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="G34" s="199">
         <v>383992</v>
@@ -27164,10 +26829,10 @@
         <v>5100005908</v>
       </c>
       <c r="E35" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F35" s="42" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="G35" s="199">
         <v>80840</v>
@@ -27194,10 +26859,10 @@
         <v>5100006586</v>
       </c>
       <c r="E36" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F36" s="42" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="G36" s="199">
         <v>359992</v>
@@ -27224,10 +26889,10 @@
         <v>5100007670</v>
       </c>
       <c r="E37" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F37" s="42" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="G37" s="199">
         <v>253336</v>
@@ -27254,10 +26919,10 @@
         <v>5100005908</v>
       </c>
       <c r="E38" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F38" s="42" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="G38" s="199">
         <v>53336</v>
@@ -27284,10 +26949,10 @@
         <v>5100006586</v>
       </c>
       <c r="E39" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F39" s="42" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G39" s="199">
         <v>136416</v>
@@ -27314,10 +26979,10 @@
         <v>5100007670</v>
       </c>
       <c r="E40" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F40" s="42" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G40" s="199">
         <v>95998</v>
@@ -27344,10 +27009,10 @@
         <v>5100005908</v>
       </c>
       <c r="E41" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F41" s="42" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="G41" s="199">
         <v>20210</v>
@@ -27374,10 +27039,10 @@
         <v>5100006586</v>
       </c>
       <c r="E42" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F42" s="42" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="G42" s="199">
         <v>89998</v>
@@ -27404,10 +27069,10 @@
         <v>5100007670</v>
       </c>
       <c r="E43" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F43" s="42" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="G43" s="199">
         <v>63334</v>
@@ -27434,10 +27099,10 @@
         <v>5100005908</v>
       </c>
       <c r="E44" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F44" s="42" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="G44" s="199">
         <v>13334</v>
@@ -27460,10 +27125,10 @@
       </c>
       <c r="D45" s="165"/>
       <c r="E45" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F45" s="42" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G45" s="199">
         <v>68208</v>
@@ -27486,10 +27151,10 @@
       </c>
       <c r="D46" s="165"/>
       <c r="E46" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F46" s="42" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G46" s="199">
         <v>47999</v>
@@ -27512,10 +27177,10 @@
       </c>
       <c r="D47" s="165"/>
       <c r="E47" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F47" s="42" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G47" s="199">
         <v>10105</v>
@@ -27538,10 +27203,10 @@
       </c>
       <c r="D48" s="165"/>
       <c r="E48" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F48" s="42" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G48" s="199">
         <v>44999</v>
@@ -27564,10 +27229,10 @@
       </c>
       <c r="D49" s="165"/>
       <c r="E49" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F49" s="42" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G49" s="199">
         <v>31667</v>
@@ -27590,10 +27255,10 @@
       </c>
       <c r="D50" s="165"/>
       <c r="E50" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F50" s="42" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G50" s="199">
         <v>6667</v>
@@ -27616,10 +27281,10 @@
       </c>
       <c r="D51" s="165"/>
       <c r="E51" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F51" s="42" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G51" s="199">
         <v>68208</v>
@@ -27642,10 +27307,10 @@
       </c>
       <c r="D52" s="165"/>
       <c r="E52" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F52" s="42" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G52" s="199">
         <v>47999</v>
@@ -27668,10 +27333,10 @@
       </c>
       <c r="D53" s="165"/>
       <c r="E53" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F53" s="42" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G53" s="199">
         <v>10105</v>
@@ -27694,10 +27359,10 @@
       </c>
       <c r="D54" s="165"/>
       <c r="E54" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F54" s="42" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G54" s="199">
         <v>44999</v>
@@ -27720,10 +27385,10 @@
       </c>
       <c r="D55" s="165"/>
       <c r="E55" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F55" s="42" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G55" s="199">
         <v>31667</v>
@@ -27746,10 +27411,10 @@
       </c>
       <c r="D56" s="165"/>
       <c r="E56" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F56" s="42" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G56" s="199">
         <v>6667</v>
@@ -27772,10 +27437,10 @@
       </c>
       <c r="D57" s="165"/>
       <c r="E57" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F57" s="42" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G57" s="199">
         <v>68208</v>
@@ -27798,10 +27463,10 @@
       </c>
       <c r="D58" s="165"/>
       <c r="E58" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F58" s="42" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G58" s="199">
         <v>47999</v>
@@ -27824,10 +27489,10 @@
       </c>
       <c r="D59" s="165"/>
       <c r="E59" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F59" s="42" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G59" s="199">
         <v>10105</v>
@@ -27850,10 +27515,10 @@
       </c>
       <c r="D60" s="165"/>
       <c r="E60" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F60" s="42" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G60" s="199">
         <v>44999</v>
@@ -27876,10 +27541,10 @@
       </c>
       <c r="D61" s="165"/>
       <c r="E61" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F61" s="42" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G61" s="199">
         <v>31667</v>
@@ -27902,10 +27567,10 @@
       </c>
       <c r="D62" s="165"/>
       <c r="E62" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F62" s="42" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G62" s="199">
         <v>6667</v>
@@ -27928,10 +27593,10 @@
       </c>
       <c r="D63" s="165"/>
       <c r="E63" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F63" s="42" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G63" s="199">
         <v>68208</v>
@@ -27954,10 +27619,10 @@
       </c>
       <c r="D64" s="165"/>
       <c r="E64" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F64" s="42" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G64" s="199">
         <v>47999</v>
@@ -27980,10 +27645,10 @@
       </c>
       <c r="D65" s="165"/>
       <c r="E65" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F65" s="42" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G65" s="199">
         <v>10105</v>
@@ -28006,10 +27671,10 @@
       </c>
       <c r="D66" s="165"/>
       <c r="E66" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F66" s="42" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G66" s="199">
         <v>68208</v>
@@ -28032,10 +27697,10 @@
       </c>
       <c r="D67" s="165"/>
       <c r="E67" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F67" s="42" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G67" s="199">
         <v>47999</v>
@@ -28058,10 +27723,10 @@
       </c>
       <c r="D68" s="165"/>
       <c r="E68" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F68" s="42" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G68" s="199">
         <v>10105</v>
@@ -28084,10 +27749,10 @@
       </c>
       <c r="D69" s="165"/>
       <c r="E69" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F69" s="42" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G69" s="199">
         <v>44999</v>
@@ -28110,10 +27775,10 @@
       </c>
       <c r="D70" s="165"/>
       <c r="E70" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F70" s="42" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G70" s="199">
         <v>31667</v>
@@ -28136,10 +27801,10 @@
       </c>
       <c r="D71" s="165"/>
       <c r="E71" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F71" s="42" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G71" s="199">
         <v>6667</v>
@@ -28162,10 +27827,10 @@
       </c>
       <c r="D72" s="165"/>
       <c r="E72" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F72" s="42" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G72" s="199">
         <v>44999</v>
@@ -28188,10 +27853,10 @@
       </c>
       <c r="D73" s="165"/>
       <c r="E73" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F73" s="42" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G73" s="199">
         <v>31667</v>
@@ -28214,10 +27879,10 @@
       </c>
       <c r="D74" s="165"/>
       <c r="E74" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="F74" s="42" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G74" s="199">
         <v>6667</v>
@@ -28244,10 +27909,10 @@
         <v>5100008189</v>
       </c>
       <c r="E75" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="F75" s="42" t="s">
         <v>332</v>
-      </c>
-      <c r="F75" s="42" t="s">
-        <v>333</v>
       </c>
       <c r="G75" s="198">
         <v>526472</v>
@@ -28269,23 +27934,23 @@
         <v>156</v>
       </c>
       <c r="D76" s="165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F76" s="42" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G76" s="199">
         <f>7000000-6872067</f>
         <v>127933</v>
       </c>
       <c r="H76" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I76" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J76" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="77" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28297,23 +27962,23 @@
         <v>156</v>
       </c>
       <c r="D77" s="165" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F77" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="G77" s="199">
         <f>4927639-549173-135407-685800</f>
         <v>3557259</v>
       </c>
       <c r="H77" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I77" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J77" s="170" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="78" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28333,7 +27998,7 @@
         <v>126</v>
       </c>
       <c r="F78" s="42" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G78" s="198">
         <v>596265</v>
@@ -28358,10 +28023,10 @@
         <v>5100012629</v>
       </c>
       <c r="E79" s="42" t="s">
+        <v>337</v>
+      </c>
+      <c r="F79" s="42" t="s">
         <v>338</v>
-      </c>
-      <c r="F79" s="42" t="s">
-        <v>339</v>
       </c>
       <c r="G79" s="222">
         <v>114300</v>
@@ -28386,10 +28051,10 @@
         <v>5100010363</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G80" s="222">
         <v>133449</v>
@@ -28414,10 +28079,10 @@
         <v>5100010588</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G81" s="222">
         <v>59374</v>
@@ -28442,10 +28107,10 @@
         <v>5100010340</v>
       </c>
       <c r="E82" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F82" s="42" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G82" s="222">
         <v>549173</v>
@@ -28470,10 +28135,10 @@
         <v>5100010563</v>
       </c>
       <c r="E83" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F83" s="2" t="s">
         <v>346</v>
-      </c>
-      <c r="F83" s="2" t="s">
-        <v>347</v>
       </c>
       <c r="G83" s="222">
         <v>1000000</v>
@@ -28503,7 +28168,7 @@
         <v>126</v>
       </c>
       <c r="F84" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G84" s="198">
         <v>167550</v>
@@ -28533,7 +28198,7 @@
         <v>126</v>
       </c>
       <c r="F85" s="42" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G85" s="198">
         <v>158805</v>
@@ -28558,10 +28223,10 @@
         <v>5100013406</v>
       </c>
       <c r="E86" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>349</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>350</v>
       </c>
       <c r="G86" s="222">
         <v>2750000</v>
@@ -28586,10 +28251,10 @@
         <v>5100009739</v>
       </c>
       <c r="E87" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F87" s="4" t="s">
         <v>351</v>
-      </c>
-      <c r="F87" s="4" t="s">
-        <v>352</v>
       </c>
       <c r="G87" s="222">
         <v>54229</v>
@@ -28616,10 +28281,10 @@
         <v>5100009447</v>
       </c>
       <c r="E88" s="4" t="s">
+        <v>360</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="F88" s="2" t="s">
-        <v>362</v>
       </c>
       <c r="G88" s="198">
         <v>200000</v>
@@ -28635,7 +28300,7 @@
     <row r="89" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="163"/>
       <c r="B89" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C89" s="42" t="s">
         <v>158</v>
@@ -28644,10 +28309,10 @@
         <v>5100010749</v>
       </c>
       <c r="E89" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="F89" s="42" t="s">
         <v>366</v>
-      </c>
-      <c r="F89" s="42" t="s">
-        <v>367</v>
       </c>
       <c r="G89" s="222">
         <v>214020</v>
@@ -28663,19 +28328,19 @@
     <row r="90" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="163"/>
       <c r="B90" s="42" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="C90" s="42" t="s">
         <v>158</v>
       </c>
       <c r="D90" s="165" t="s">
+        <v>367</v>
+      </c>
+      <c r="E90" s="42" t="s">
         <v>368</v>
       </c>
-      <c r="E90" s="42" t="s">
+      <c r="F90" s="42" t="s">
         <v>369</v>
-      </c>
-      <c r="F90" s="42" t="s">
-        <v>370</v>
       </c>
       <c r="G90" s="199">
         <v>57785</v>
@@ -28703,7 +28368,7 @@
         <v>126</v>
       </c>
       <c r="F91" s="42" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G91" s="222">
         <v>1636820</v>
@@ -28728,7 +28393,7 @@
         <v>5100010605</v>
       </c>
       <c r="E92" s="42" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F92" s="42" t="s">
         <v>244</v>
@@ -28759,7 +28424,7 @@
         <v>129</v>
       </c>
       <c r="F93" s="42" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G93" s="222">
         <v>154000</v>
@@ -28784,10 +28449,10 @@
         <v>5100011241</v>
       </c>
       <c r="E94" s="4" t="s">
+        <v>373</v>
+      </c>
+      <c r="F94" s="2" t="s">
         <v>374</v>
-      </c>
-      <c r="F94" s="2" t="s">
-        <v>375</v>
       </c>
       <c r="G94" s="222">
         <v>63500</v>
@@ -28809,13 +28474,13 @@
         <v>154</v>
       </c>
       <c r="D95" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E95" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E95" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="F95" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G95" s="222">
         <v>20981</v>
@@ -28843,7 +28508,7 @@
         <v>126</v>
       </c>
       <c r="F96" s="42" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G96" s="222">
         <v>186600</v>
@@ -28896,10 +28561,10 @@
         <v>5100012550</v>
       </c>
       <c r="E98" s="4" t="s">
+        <v>350</v>
+      </c>
+      <c r="F98" s="2" t="s">
         <v>351</v>
-      </c>
-      <c r="F98" s="2" t="s">
-        <v>352</v>
       </c>
       <c r="G98" s="199">
         <v>266421</v>
@@ -28911,7 +28576,7 @@
         <v>139</v>
       </c>
       <c r="J98" s="170" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="99" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -28923,13 +28588,13 @@
         <v>158</v>
       </c>
       <c r="D99" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E99" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E99" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="F99" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G99" s="222">
         <v>35130</v>
@@ -28954,10 +28619,10 @@
         <v>5100012226</v>
       </c>
       <c r="E100" s="4" t="s">
+        <v>413</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>414</v>
-      </c>
-      <c r="F100" s="2" t="s">
-        <v>415</v>
       </c>
       <c r="G100" s="222">
         <v>247465</v>
@@ -28982,10 +28647,10 @@
         <v>5100012226</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G101" s="222">
         <v>76970</v>
@@ -29007,13 +28672,13 @@
         <v>158</v>
       </c>
       <c r="D102" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="E102" s="4" t="s">
         <v>368</v>
       </c>
-      <c r="E102" s="4" t="s">
-        <v>369</v>
-      </c>
       <c r="F102" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G102" s="222">
         <v>87598</v>
@@ -29041,7 +28706,7 @@
         <v>129</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G103" s="199">
         <v>320000</v>
@@ -29053,7 +28718,7 @@
         <v>139</v>
       </c>
       <c r="J103" s="170" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
     </row>
     <row r="104" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29068,22 +28733,22 @@
         <v>4500009792</v>
       </c>
       <c r="E104" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G104" s="199">
         <v>4065035</v>
       </c>
       <c r="H104" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I104" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J104" s="170" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="105" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29098,22 +28763,22 @@
         <v>5100014078</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G105" s="199">
         <v>2664463</v>
       </c>
       <c r="H105" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I105" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J105" s="170" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="106" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29128,10 +28793,10 @@
         <v>5100013384</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="F106" s="42" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G106" s="222">
         <v>135407</v>
@@ -29156,16 +28821,16 @@
         <v>4500009334</v>
       </c>
       <c r="E107" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F107" s="2" t="s">
         <v>443</v>
-      </c>
-      <c r="F107" s="2" t="s">
-        <v>444</v>
       </c>
       <c r="G107" s="199">
         <v>1117600</v>
       </c>
       <c r="H107" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I107" s="181" t="s">
         <v>139</v>
@@ -29187,19 +28852,19 @@
         <v>238</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G108" s="199">
         <v>59690</v>
       </c>
       <c r="H108" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I108" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J108" s="170" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="109" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29214,22 +28879,22 @@
         <v>4500009715</v>
       </c>
       <c r="E109" s="42" t="s">
+        <v>447</v>
+      </c>
+      <c r="F109" s="42" t="s">
         <v>448</v>
-      </c>
-      <c r="F109" s="42" t="s">
-        <v>449</v>
       </c>
       <c r="G109" s="199">
         <v>685800</v>
       </c>
       <c r="H109" s="165" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="I109" s="181" t="s">
         <v>139</v>
       </c>
       <c r="J109" s="170" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="110" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29247,7 +28912,7 @@
         <v>126</v>
       </c>
       <c r="F110" s="42" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G110" s="222">
         <v>38100</v>
@@ -29259,7 +28924,7 @@
         <v>139</v>
       </c>
       <c r="J110" s="170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="111" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29277,7 +28942,7 @@
         <v>126</v>
       </c>
       <c r="F111" s="42" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G111" s="222">
         <v>984820</v>
@@ -29289,7 +28954,7 @@
         <v>139</v>
       </c>
       <c r="J111" s="170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29304,10 +28969,10 @@
         <v>5100013442</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G112" s="222">
         <v>44882</v>
@@ -29319,7 +28984,7 @@
         <v>139</v>
       </c>
       <c r="J112" s="170" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="113" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29334,10 +28999,10 @@
         <v>5100013444</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G113" s="222">
         <v>28362</v>
@@ -29349,7 +29014,7 @@
         <v>139</v>
       </c>
       <c r="J113" s="170" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29364,10 +29029,10 @@
         <v>5100013637</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G114" s="222">
         <v>40988</v>
@@ -29379,7 +29044,7 @@
         <v>139</v>
       </c>
       <c r="J114" s="170" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="115" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29397,7 +29062,7 @@
         <v>126</v>
       </c>
       <c r="F115" s="42" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G115" s="222">
         <v>1193800</v>
@@ -29409,7 +29074,7 @@
         <v>139</v>
       </c>
       <c r="J115" s="170" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="116" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29427,7 +29092,7 @@
         <v>126</v>
       </c>
       <c r="F116" s="42" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G116" s="198">
         <v>1385040</v>
@@ -29439,7 +29104,7 @@
         <v>139</v>
       </c>
       <c r="J116" s="170" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="117" spans="1:10" s="42" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29457,7 +29122,7 @@
         <v>126</v>
       </c>
       <c r="F117" s="42" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G117" s="198">
         <v>186600</v>
@@ -29469,7 +29134,7 @@
         <v>139</v>
       </c>
       <c r="J117" s="170" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="118" spans="1:10" s="2" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
@@ -29548,7 +29213,7 @@
         <v>37376242</v>
       </c>
       <c r="H125" s="179" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="I125" s="180"/>
     </row>
@@ -30042,7 +29707,7 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}">
+    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}">
       <selection activeCell="A16" sqref="A16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -30050,7 +29715,7 @@
       <selection activeCell="F22" sqref="F22"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}">
+    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}">
       <selection activeCell="A16" sqref="A16"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -30526,13 +30191,13 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" s="68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B42" s="68" t="s">
         <v>251</v>
       </c>
       <c r="C42" s="68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -30900,18 +30565,18 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B76" t="s">
         <v>158</v>
       </c>
       <c r="C76" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B77" t="s">
         <v>159</v>
@@ -30923,7 +30588,7 @@
   </sheetData>
   <autoFilter ref="A1:C40" xr:uid="{00000000-0001-0000-0700-000000000000}"/>
   <customSheetViews>
-    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}">
+    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}">
       <selection activeCell="H5" sqref="H5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -30931,7 +30596,7 @@
       <selection activeCell="E27" sqref="E27"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{5B7A7034-1D27-4339-9163-15908448B119}">
+    <customSheetView guid="{A894C457-AC24-41C3-B3B3-F885000CA59F}">
       <selection activeCell="H5" sqref="H5"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
@@ -30956,27 +30621,27 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="235" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="235" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C1" s="235" t="s">
         <v>263</v>
       </c>
       <c r="D1" s="235" t="s">
+        <v>399</v>
+      </c>
+      <c r="E1" s="235" t="s">
         <v>400</v>
-      </c>
-      <c r="E1" s="235" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="236" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2" s="236" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C2" s="8" t="s">
         <v>128</v>
@@ -30993,7 +30658,7 @@
         <v>236</v>
       </c>
       <c r="B3" s="238" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C3" s="8" t="s">
         <v>13</v>
@@ -31007,13 +30672,13 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="237" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B4" s="238" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D4" s="228">
         <v>480500</v>
@@ -31027,10 +30692,10 @@
         <v>133</v>
       </c>
       <c r="B5" s="236" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D5" s="228">
         <v>1030000</v>
@@ -31041,13 +30706,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="238" t="s">
+        <v>395</v>
+      </c>
+      <c r="B6" s="238" t="s">
+        <v>417</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>396</v>
-      </c>
-      <c r="B6" s="238" t="s">
-        <v>418</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>397</v>
       </c>
       <c r="D6" s="228">
         <v>1100001</v>
@@ -31061,10 +30726,10 @@
         <v>16</v>
       </c>
       <c r="B7" s="238" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D7" s="228">
         <v>640600</v>
@@ -31078,7 +30743,7 @@
         <v>127</v>
       </c>
       <c r="B8" s="236" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="C8" s="8" t="s">
         <v>128</v>
@@ -31092,13 +30757,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="238" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B9" s="238" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D9" s="228">
         <v>1150000</v>
@@ -31112,10 +30777,10 @@
         <v>22</v>
       </c>
       <c r="B10" s="238" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D10" s="228">
         <v>840000</v>
@@ -31129,10 +30794,10 @@
         <v>245</v>
       </c>
       <c r="B11" s="236" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D11" s="228">
         <v>508000</v>
@@ -31146,10 +30811,10 @@
         <v>26</v>
       </c>
       <c r="B12" s="238" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D12" s="228">
         <v>566999</v>
